--- a/datas/shared/AllianceBuilding.xlsx
+++ b/datas/shared/AllianceBuilding.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6880" yWindow="380" windowWidth="25600" windowHeight="17000" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="3540" yWindow="1120" windowWidth="25600" windowHeight="17000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="palace" sheetId="1" r:id="rId1"/>
-    <sheet name="moonGate" sheetId="2" r:id="rId2"/>
-    <sheet name="orderHall" sheetId="3" r:id="rId3"/>
-    <sheet name="shrine" sheetId="4" r:id="rId4"/>
-    <sheet name="shop" sheetId="5" r:id="rId5"/>
+    <sheet name="shop" sheetId="5" r:id="rId2"/>
+    <sheet name="moonGate" sheetId="2" r:id="rId3"/>
+    <sheet name="orderHall" sheetId="3" r:id="rId4"/>
+    <sheet name="shrine" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>INT_level</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -49,10 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>INT_power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_pRecovery</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -65,31 +61,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>INT_stoneVillageCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_ironVillageCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_foodVillageCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_coinVillageCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_perception</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_needHonour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>INT_woodVillageCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>INT_stoneVillageCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_ironVillageCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_foodVillageCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_coinVillageCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_gemVillageCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_perception</t>
+    <t>STR_itemsUnlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,dragonChest_1,movingConstruction,torch,changePlayerName,changeCityName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,dragonChest_1,movingConstruction,torch,changePlayerName,changeCityName,woodClass_6,stoneClass_6,ironClass_6,foodClass_6,coinClass_6,retreatTroop,moveTheCity,vipActive_2,casinoTokenClass_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,dragonChest_1,movingConstruction,torch,changePlayerName,changeCityName,woodClass_6,stoneClass_6,ironClass_6,foodClass_6,coinClass_6,retreatTroop,moveTheCity,vipActive_2,casinoTokenClass_1,dragonChest_2,vipActive_3,casinoTokenClass_2,quarterMaster_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,dragonChest_1,movingConstruction,torch,changePlayerName,changeCityName,woodClass_6,stoneClass_6,ironClass_6,foodClass_6,coinClass_6,retreatTroop,moveTheCity,vipActive_2,casinoTokenClass_1,dragonChest_2,vipActive_3,casinoTokenClass_2,quarterMaster_1,woodBonus_1,stoneBonus_1,ironBonus_1,foodBonus_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,dragonChest_1,movingConstruction,torch,changePlayerName,changeCityName,woodClass_6,stoneClass_6,ironClass_6,foodClass_6,coinClass_6,retreatTroop,moveTheCity,vipActive_2,casinoTokenClass_1,dragonChest_2,vipActive_3,casinoTokenClass_2,quarterMaster_1,woodBonus_1,stoneBonus_1,ironBonus_1,foodBonus_1,dragonHp_2,restoreWall_2,masterOfDefender_1,coinBonus_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,dragonChest_1,movingConstruction,torch,changePlayerName,changeCityName,woodClass_6,stoneClass_6,ironClass_6,foodClass_6,coinClass_6,retreatTroop,moveTheCity,vipActive_2,casinoTokenClass_1,dragonChest_2,vipActive_3,casinoTokenClass_2,quarterMaster_1,woodBonus_1,stoneBonus_1,ironBonus_1,foodBonus_1,dragonHp_2,restoreWall_2,masterOfDefender_1,coinBonus_1,infantryAtkBonus_1,archerAtkBonus_1,cavalryAtkBonus_1,siegeAtkBonus_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,dragonChest_1,movingConstruction,torch,changePlayerName,changeCityName,woodClass_6,stoneClass_6,ironClass_6,foodClass_6,coinClass_6,retreatTroop,moveTheCity,vipActive_2,casinoTokenClass_1,dragonChest_2,vipActive_3,casinoTokenClass_2,quarterMaster_1,woodBonus_1,stoneBonus_1,ironBonus_1,foodBonus_1,dragonHp_2,restoreWall_2,masterOfDefender_1,coinBonus_1,infantryAtkBonus_1,archerAtkBonus_1,cavalryAtkBonus_1,siegeAtkBonus_1,dragonChest_3,unitHpBonus_1,dragonHpBonus_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,dragonChest_1,movingConstruction,torch,changePlayerName,changeCityName,woodClass_6,stoneClass_6,ironClass_6,foodClass_6,coinClass_6,retreatTroop,moveTheCity,vipActive_2,casinoTokenClass_1,dragonChest_2,vipActive_3,casinoTokenClass_2,quarterMaster_1,woodBonus_1,stoneBonus_1,ironBonus_1,foodBonus_1,dragonHp_2,restoreWall_2,masterOfDefender_1,coinBonus_1,infantryAtkBonus_1,archerAtkBonus_1,cavalryAtkBonus_1,siegeAtkBonus_1,dragonChest_3,unitHpBonus_1,dragonHpBonus_1,troopSizeBonus_1,heroBlood_2,dragonExp_2,vipPoint_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,dragonChest_1,movingConstruction,torch,changePlayerName,changeCityName,woodClass_6,stoneClass_6,ironClass_6,foodClass_6,coinClass_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,dragonChest_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -97,7 +141,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -137,6 +181,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -152,7 +204,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -175,8 +227,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="89">
+  <cellStyleXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -266,8 +344,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -275,8 +377,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="89">
+  <cellStyles count="113">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -321,6 +435,18 @@
     <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -365,6 +491,18 @@
     <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -694,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -705,7 +843,7 @@
     <col min="1" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -713,190 +851,157 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15">
+    </row>
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2">
         <v>3</v>
       </c>
-      <c r="D2" s="2">
-        <v>200</v>
-      </c>
-      <c r="E2" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15">
+    </row>
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="C3" s="2">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2">
-        <v>400</v>
-      </c>
-      <c r="E3" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>1600</v>
+        <v>3800</v>
       </c>
       <c r="C4" s="2">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2">
-        <v>800</v>
-      </c>
-      <c r="E4" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>3200</v>
+        <v>9400</v>
       </c>
       <c r="C5" s="2">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2">
-        <v>1600</v>
-      </c>
-      <c r="E5" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>6400</v>
+        <v>24100</v>
       </c>
       <c r="C6" s="2">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2">
-        <v>3200</v>
-      </c>
-      <c r="E6" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>12800</v>
+        <v>44200</v>
       </c>
       <c r="C7" s="2">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2">
-        <v>6400</v>
-      </c>
-      <c r="E7" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>25600</v>
+        <v>74600</v>
       </c>
       <c r="C8" s="2">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D8" s="2">
-        <v>12800</v>
-      </c>
-      <c r="E8" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>51200</v>
+        <v>165500</v>
       </c>
       <c r="C9" s="2">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D9" s="2">
-        <v>25600</v>
-      </c>
-      <c r="E9" s="2">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15">
+        <v>4138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>102400</v>
+        <v>264400</v>
       </c>
       <c r="C10" s="2">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2">
-        <v>51200</v>
-      </c>
-      <c r="E10" s="2">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15">
+        <v>6610</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>204800</v>
+        <v>559300</v>
       </c>
       <c r="C11" s="2">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D11" s="2">
-        <v>102400</v>
-      </c>
-      <c r="E11" s="2">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15"/>
-    <row r="13" spans="1:5" ht="15"/>
-    <row r="14" spans="1:5" ht="15"/>
-    <row r="15" spans="1:5" ht="15"/>
-    <row r="16" spans="1:5" ht="15"/>
+        <v>13983</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15"/>
+    <row r="13" spans="1:4" ht="15"/>
+    <row r="14" spans="1:4" ht="15"/>
+    <row r="15" spans="1:4" ht="15"/>
+    <row r="16" spans="1:4" ht="15"/>
     <row r="17" ht="15"/>
     <row r="18" ht="15"/>
     <row r="19" ht="15"/>
@@ -920,13 +1025,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="20.6640625" style="2"/>
+    <col min="1" max="3" width="20.6640625" style="2"/>
+    <col min="4" max="4" width="82.33203125" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="15">
@@ -939,11 +1046,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
+      <c r="D1" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15">
@@ -956,14 +1063,14 @@
       <c r="C2" s="2">
         <v>3</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2">
         <v>200</v>
       </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15">
+    </row>
+    <row r="3" spans="1:5" ht="30">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -973,14 +1080,14 @@
       <c r="C3" s="2">
         <v>5</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2">
         <v>400</v>
       </c>
-      <c r="E3" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15">
+    </row>
+    <row r="4" spans="1:5" ht="45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -990,14 +1097,14 @@
       <c r="C4" s="2">
         <v>8</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2">
         <v>800</v>
       </c>
-      <c r="E4" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15">
+    </row>
+    <row r="5" spans="1:5" ht="60">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1007,14 +1114,14 @@
       <c r="C5" s="2">
         <v>9</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2">
         <v>1600</v>
       </c>
-      <c r="E5" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15">
+    </row>
+    <row r="6" spans="1:5" ht="60">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1024,14 +1131,14 @@
       <c r="C6" s="2">
         <v>10</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2">
         <v>3200</v>
       </c>
-      <c r="E6" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15">
+    </row>
+    <row r="7" spans="1:5" ht="75">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1041,14 +1148,14 @@
       <c r="C7" s="2">
         <v>12</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2">
         <v>6400</v>
       </c>
-      <c r="E7" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15">
+    </row>
+    <row r="8" spans="1:5" ht="90">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1058,14 +1165,14 @@
       <c r="C8" s="2">
         <v>14</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2">
         <v>12800</v>
       </c>
-      <c r="E8" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15">
+    </row>
+    <row r="9" spans="1:5" ht="90">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1075,14 +1182,14 @@
       <c r="C9" s="2">
         <v>16</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="2">
         <v>25600</v>
       </c>
-      <c r="E9" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15">
+    </row>
+    <row r="10" spans="1:5" ht="105">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1092,14 +1199,14 @@
       <c r="C10" s="2">
         <v>18</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="2">
         <v>51200</v>
       </c>
-      <c r="E10" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15">
+    </row>
+    <row r="11" spans="1:5" ht="120">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1109,11 +1216,11 @@
       <c r="C11" s="2">
         <v>20</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="2">
         <v>102400</v>
-      </c>
-      <c r="E11" s="2">
-        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15"/>
@@ -1142,656 +1249,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="20.6640625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>400</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2">
-        <v>200</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>800</v>
-      </c>
-      <c r="C3" s="2">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2">
-        <v>400</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2">
-        <v>2</v>
-      </c>
-      <c r="G3" s="2">
-        <v>2</v>
-      </c>
-      <c r="H3" s="2">
-        <v>2</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1600</v>
-      </c>
-      <c r="C4" s="2">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2">
-        <v>800</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2">
-        <v>3</v>
-      </c>
-      <c r="G4" s="2">
-        <v>3</v>
-      </c>
-      <c r="H4" s="2">
-        <v>3</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>3200</v>
-      </c>
-      <c r="C5" s="2">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1600</v>
-      </c>
-      <c r="E5" s="2">
-        <v>4</v>
-      </c>
-      <c r="F5" s="2">
-        <v>4</v>
-      </c>
-      <c r="G5" s="2">
-        <v>4</v>
-      </c>
-      <c r="H5" s="2">
-        <v>4</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>6400</v>
-      </c>
-      <c r="C6" s="2">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2">
-        <v>3200</v>
-      </c>
-      <c r="E6" s="2">
-        <v>5</v>
-      </c>
-      <c r="F6" s="2">
-        <v>5</v>
-      </c>
-      <c r="G6" s="2">
-        <v>5</v>
-      </c>
-      <c r="H6" s="2">
-        <v>5</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>12800</v>
-      </c>
-      <c r="C7" s="2">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2">
-        <v>6400</v>
-      </c>
-      <c r="E7" s="2">
-        <v>6</v>
-      </c>
-      <c r="F7" s="2">
-        <v>6</v>
-      </c>
-      <c r="G7" s="2">
-        <v>6</v>
-      </c>
-      <c r="H7" s="2">
-        <v>6</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>25600</v>
-      </c>
-      <c r="C8" s="2">
-        <v>14</v>
-      </c>
-      <c r="D8" s="2">
-        <v>12800</v>
-      </c>
-      <c r="E8" s="2">
-        <v>7</v>
-      </c>
-      <c r="F8" s="2">
-        <v>7</v>
-      </c>
-      <c r="G8" s="2">
-        <v>7</v>
-      </c>
-      <c r="H8" s="2">
-        <v>7</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>51200</v>
-      </c>
-      <c r="C9" s="2">
-        <v>16</v>
-      </c>
-      <c r="D9" s="2">
-        <v>25600</v>
-      </c>
-      <c r="E9" s="2">
-        <v>8</v>
-      </c>
-      <c r="F9" s="2">
-        <v>8</v>
-      </c>
-      <c r="G9" s="2">
-        <v>8</v>
-      </c>
-      <c r="H9" s="2">
-        <v>8</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>102400</v>
-      </c>
-      <c r="C10" s="2">
-        <v>18</v>
-      </c>
-      <c r="D10" s="2">
-        <v>51200</v>
-      </c>
-      <c r="E10" s="2">
-        <v>9</v>
-      </c>
-      <c r="F10" s="2">
-        <v>9</v>
-      </c>
-      <c r="G10" s="2">
-        <v>9</v>
-      </c>
-      <c r="H10" s="2">
-        <v>9</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>204800</v>
-      </c>
-      <c r="C11" s="2">
-        <v>20</v>
-      </c>
-      <c r="D11" s="2">
-        <v>102400</v>
-      </c>
-      <c r="E11" s="2">
-        <v>10</v>
-      </c>
-      <c r="F11" s="2">
-        <v>10</v>
-      </c>
-      <c r="G11" s="2">
-        <v>10</v>
-      </c>
-      <c r="H11" s="2">
-        <v>10</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15"/>
-    <row r="13" spans="1:10" ht="15"/>
-    <row r="14" spans="1:10" ht="15"/>
-    <row r="15" spans="1:10" ht="15"/>
-    <row r="16" spans="1:10" ht="15"/>
-    <row r="17" ht="15"/>
-    <row r="18" ht="15"/>
-    <row r="19" ht="15"/>
-    <row r="20" ht="15"/>
-    <row r="21" ht="15"/>
-    <row r="22" ht="15"/>
-    <row r="23" ht="15"/>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="20.6640625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>400</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2">
-        <v>200</v>
-      </c>
-      <c r="E2" s="2">
-        <v>50</v>
-      </c>
-      <c r="F2" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>800</v>
-      </c>
-      <c r="C3" s="2">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2">
-        <v>400</v>
-      </c>
-      <c r="E3" s="2">
-        <v>100</v>
-      </c>
-      <c r="F3" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1600</v>
-      </c>
-      <c r="C4" s="2">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2">
-        <v>800</v>
-      </c>
-      <c r="E4" s="2">
-        <v>150</v>
-      </c>
-      <c r="F4" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>3200</v>
-      </c>
-      <c r="C5" s="2">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1600</v>
-      </c>
-      <c r="E5" s="2">
-        <v>200</v>
-      </c>
-      <c r="F5" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>6400</v>
-      </c>
-      <c r="C6" s="2">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2">
-        <v>3200</v>
-      </c>
-      <c r="E6" s="2">
-        <v>250</v>
-      </c>
-      <c r="F6" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>12800</v>
-      </c>
-      <c r="C7" s="2">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2">
-        <v>6400</v>
-      </c>
-      <c r="E7" s="2">
-        <v>300</v>
-      </c>
-      <c r="F7" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>25600</v>
-      </c>
-      <c r="C8" s="2">
-        <v>14</v>
-      </c>
-      <c r="D8" s="2">
-        <v>12800</v>
-      </c>
-      <c r="E8" s="2">
-        <v>350</v>
-      </c>
-      <c r="F8" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>51200</v>
-      </c>
-      <c r="C9" s="2">
-        <v>16</v>
-      </c>
-      <c r="D9" s="2">
-        <v>25600</v>
-      </c>
-      <c r="E9" s="2">
-        <v>400</v>
-      </c>
-      <c r="F9" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>102400</v>
-      </c>
-      <c r="C10" s="2">
-        <v>18</v>
-      </c>
-      <c r="D10" s="2">
-        <v>51200</v>
-      </c>
-      <c r="E10" s="2">
-        <v>450</v>
-      </c>
-      <c r="F10" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>204800</v>
-      </c>
-      <c r="C11" s="2">
-        <v>20</v>
-      </c>
-      <c r="D11" s="2">
-        <v>102400</v>
-      </c>
-      <c r="E11" s="2">
-        <v>500</v>
-      </c>
-      <c r="F11" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15"/>
-    <row r="13" spans="1:6" ht="15"/>
-    <row r="14" spans="1:6" ht="15"/>
-    <row r="15" spans="1:6" ht="15"/>
-    <row r="16" spans="1:6" ht="15"/>
-    <row r="17" ht="15"/>
-    <row r="18" ht="15"/>
-    <row r="19" ht="15"/>
-    <row r="20" ht="15"/>
-    <row r="21" ht="15"/>
-    <row r="22" ht="15"/>
-    <row r="23" ht="15"/>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1807,150 +1268,150 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>400</v>
+      <c r="B2" s="3">
+        <v>1300</v>
       </c>
       <c r="C2" s="2">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2">
-        <v>200</v>
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>800</v>
+      <c r="B3" s="3">
+        <v>4700</v>
       </c>
       <c r="C3" s="2">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2">
-        <v>400</v>
+        <v>2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>1600</v>
+      <c r="B4" s="3">
+        <v>14500</v>
       </c>
       <c r="C4" s="2">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2">
-        <v>800</v>
+        <v>3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <v>3200</v>
+      <c r="B5" s="3">
+        <v>29500</v>
       </c>
       <c r="C5" s="2">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1600</v>
+        <v>5</v>
+      </c>
+      <c r="D5" s="4">
+        <v>738</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
-        <v>6400</v>
+      <c r="B6" s="3">
+        <v>53300</v>
       </c>
       <c r="C6" s="2">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2">
-        <v>3200</v>
+        <v>8</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1333</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
-        <v>12800</v>
+      <c r="B7" s="3">
+        <v>124100</v>
       </c>
       <c r="C7" s="2">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2">
-        <v>6400</v>
+        <v>10</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3103</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
-        <v>25600</v>
+      <c r="B8" s="3">
+        <v>205700</v>
       </c>
       <c r="C8" s="2">
-        <v>14</v>
-      </c>
-      <c r="D8" s="2">
-        <v>12800</v>
+        <v>15</v>
+      </c>
+      <c r="D8" s="4">
+        <v>5143</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
-        <v>51200</v>
+      <c r="B9" s="3">
+        <v>447500</v>
       </c>
       <c r="C9" s="2">
-        <v>16</v>
-      </c>
-      <c r="D9" s="2">
-        <v>25600</v>
+        <v>20</v>
+      </c>
+      <c r="D9" s="4">
+        <v>11188</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
-        <v>102400</v>
+      <c r="B10" s="3">
+        <v>687400</v>
       </c>
       <c r="C10" s="2">
-        <v>18</v>
-      </c>
-      <c r="D10" s="2">
-        <v>51200</v>
+        <v>30</v>
+      </c>
+      <c r="D10" s="4">
+        <v>17185</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
-        <v>204800</v>
+      <c r="B11" s="3">
+        <v>1008300</v>
       </c>
       <c r="C11" s="2">
-        <v>20</v>
-      </c>
-      <c r="D11" s="2">
-        <v>102400</v>
+        <v>40</v>
+      </c>
+      <c r="D11" s="4">
+        <v>25208</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15"/>
@@ -1975,4 +1436,551 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="20.6640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>400</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2500</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>7000</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>19300</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2">
+        <v>6</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>36900</v>
+      </c>
+      <c r="C6" s="2">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>64000</v>
+      </c>
+      <c r="C7" s="2">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2">
+        <v>9</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>144800</v>
+      </c>
+      <c r="C8" s="2">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>235100</v>
+      </c>
+      <c r="C9" s="2">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>5878</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>503400</v>
+      </c>
+      <c r="C10" s="2">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2">
+        <v>13</v>
+      </c>
+      <c r="F10" s="2">
+        <v>13</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>12585</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>763700</v>
+      </c>
+      <c r="C11" s="2">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2">
+        <v>15</v>
+      </c>
+      <c r="F11" s="2">
+        <v>15</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>19093</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15"/>
+    <row r="13" spans="1:8" ht="15"/>
+    <row r="14" spans="1:8" ht="15"/>
+    <row r="15" spans="1:8" ht="15"/>
+    <row r="16" spans="1:8" ht="15"/>
+    <row r="17" ht="15"/>
+    <row r="18" ht="15"/>
+    <row r="19" ht="15"/>
+    <row r="20" ht="15"/>
+    <row r="21" ht="15"/>
+    <row r="22" ht="15"/>
+    <row r="23" ht="15"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="20.6640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>900</v>
+      </c>
+      <c r="C2" s="2">
+        <v>150</v>
+      </c>
+      <c r="D2" s="2">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3500</v>
+      </c>
+      <c r="C3" s="2">
+        <v>200</v>
+      </c>
+      <c r="D3" s="2">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>9100</v>
+      </c>
+      <c r="C4" s="2">
+        <v>250</v>
+      </c>
+      <c r="D4" s="2">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>24100</v>
+      </c>
+      <c r="C5" s="2">
+        <v>300</v>
+      </c>
+      <c r="D5" s="2">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>44600</v>
+      </c>
+      <c r="C6" s="2">
+        <v>350</v>
+      </c>
+      <c r="D6" s="2">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>105900</v>
+      </c>
+      <c r="C7" s="2">
+        <v>400</v>
+      </c>
+      <c r="D7" s="2">
+        <v>17</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>168400</v>
+      </c>
+      <c r="C8" s="2">
+        <v>450</v>
+      </c>
+      <c r="D8" s="2">
+        <v>19</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>282700</v>
+      </c>
+      <c r="C9" s="2">
+        <v>500</v>
+      </c>
+      <c r="D9" s="2">
+        <v>21</v>
+      </c>
+      <c r="E9" s="4">
+        <v>7068</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>591100</v>
+      </c>
+      <c r="C10" s="2">
+        <v>550</v>
+      </c>
+      <c r="D10" s="2">
+        <v>23</v>
+      </c>
+      <c r="E10" s="4">
+        <v>14778</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>880800</v>
+      </c>
+      <c r="C11" s="2">
+        <v>600</v>
+      </c>
+      <c r="D11" s="2">
+        <v>25</v>
+      </c>
+      <c r="E11" s="4">
+        <v>22020</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15"/>
+    <row r="13" spans="1:5" ht="15"/>
+    <row r="14" spans="1:5" ht="15"/>
+    <row r="15" spans="1:5" ht="15"/>
+    <row r="16" spans="1:5" ht="15"/>
+    <row r="17" ht="15"/>
+    <row r="18" ht="15"/>
+    <row r="19" ht="15"/>
+    <row r="20" ht="15"/>
+    <row r="21" ht="15"/>
+    <row r="22" ht="15"/>
+    <row r="23" ht="15"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/datas/shared/AllianceBuilding.xlsx
+++ b/datas/shared/AllianceBuilding.xlsx
@@ -1025,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>

--- a/datas/shared/AllianceBuilding.xlsx
+++ b/datas/shared/AllianceBuilding.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="1120" windowWidth="25600" windowHeight="17000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="5180" yWindow="1780" windowWidth="25600" windowHeight="17000" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="palace" sheetId="1" r:id="rId1"/>
@@ -23,17 +23,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>INT_level</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>INT_needHonour</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_needKeep</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -204,7 +200,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -240,19 +236,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -369,7 +352,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -378,9 +361,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -835,7 +815,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -851,10 +831,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -862,13 +842,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="C2" s="2">
         <v>15</v>
       </c>
       <c r="D2" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
@@ -876,13 +856,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="C3" s="2">
         <v>20</v>
       </c>
       <c r="D3" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
@@ -890,13 +870,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>3800</v>
+        <v>3300</v>
       </c>
       <c r="C4" s="2">
         <v>25</v>
       </c>
       <c r="D4" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
@@ -904,13 +884,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>9400</v>
+        <v>27100</v>
       </c>
       <c r="C5" s="2">
         <v>30</v>
       </c>
       <c r="D5" s="2">
-        <v>235</v>
+        <v>678</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
@@ -918,13 +898,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>24100</v>
+        <v>94600</v>
       </c>
       <c r="C6" s="2">
         <v>35</v>
       </c>
       <c r="D6" s="2">
-        <v>603</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
@@ -932,13 +912,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>44200</v>
+        <v>272100</v>
       </c>
       <c r="C7" s="2">
         <v>40</v>
       </c>
       <c r="D7" s="2">
-        <v>1105</v>
+        <v>6803</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15">
@@ -946,13 +926,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>74600</v>
+        <v>618000</v>
       </c>
       <c r="C8" s="2">
         <v>45</v>
       </c>
       <c r="D8" s="2">
-        <v>1865</v>
+        <v>15450</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
@@ -960,13 +940,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>165500</v>
+        <v>1317400</v>
       </c>
       <c r="C9" s="2">
         <v>50</v>
       </c>
       <c r="D9" s="2">
-        <v>4138</v>
+        <v>32935</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15">
@@ -974,13 +954,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>264400</v>
+        <v>3138600</v>
       </c>
       <c r="C10" s="2">
         <v>55</v>
       </c>
       <c r="D10" s="2">
-        <v>6610</v>
+        <v>78465</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
@@ -988,13 +968,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>559300</v>
+        <v>5725200</v>
       </c>
       <c r="C11" s="2">
         <v>60</v>
       </c>
       <c r="D11" s="2">
-        <v>13983</v>
+        <v>143130</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15"/>
@@ -1023,211 +1003,178 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showRuler="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="3" width="20.6640625" style="2"/>
-    <col min="4" max="4" width="82.33203125" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="20.6640625" style="2"/>
+    <col min="1" max="2" width="20.6640625" style="2"/>
+    <col min="3" max="3" width="82.33203125" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15">
+      <c r="C1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>400</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30">
+      <c r="B2" s="3">
+        <v>330</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>800</v>
-      </c>
-      <c r="C3" s="2">
-        <v>5</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="45">
+      <c r="B3" s="3">
+        <v>1100</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>1600</v>
-      </c>
-      <c r="C4" s="2">
-        <v>8</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="2">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="60">
+      <c r="B4" s="3">
+        <v>3630</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="60">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <v>3200</v>
-      </c>
-      <c r="C5" s="2">
-        <v>9</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="60">
+      <c r="B5" s="3">
+        <v>29810</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="60">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
-        <v>6400</v>
-      </c>
-      <c r="C6" s="2">
-        <v>10</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="75">
+      <c r="B6" s="3">
+        <v>104060</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="75">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
-        <v>12800</v>
-      </c>
-      <c r="C7" s="2">
-        <v>12</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="2">
-        <v>6400</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="90">
+      <c r="B7" s="3">
+        <v>299310</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2">
+        <v>7483</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="90">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
-        <v>25600</v>
-      </c>
-      <c r="C8" s="2">
-        <v>14</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="2">
-        <v>12800</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="90">
+      <c r="B8" s="3">
+        <v>679800</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2">
+        <v>16995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="90">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
-        <v>51200</v>
-      </c>
-      <c r="C9" s="2">
-        <v>16</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="2">
-        <v>25600</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="105">
+      <c r="B9" s="3">
+        <v>1449140</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2">
+        <v>36229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="105">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
-        <v>102400</v>
-      </c>
-      <c r="C10" s="2">
-        <v>18</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="2">
-        <v>51200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="120">
+      <c r="B10" s="3">
+        <v>3452460</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2">
+        <v>86312</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="120">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>204800</v>
-      </c>
-      <c r="C11" s="2">
-        <v>20</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="2">
-        <v>102400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15"/>
-    <row r="13" spans="1:5" ht="15"/>
-    <row r="14" spans="1:5" ht="15"/>
-    <row r="15" spans="1:5" ht="15"/>
-    <row r="16" spans="1:5" ht="15"/>
+        <v>6297720</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="2">
+        <v>157443</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15"/>
+    <row r="13" spans="1:4" ht="15"/>
+    <row r="14" spans="1:4" ht="15"/>
+    <row r="15" spans="1:4" ht="15"/>
+    <row r="16" spans="1:4" ht="15"/>
     <row r="17" ht="15"/>
     <row r="18" ht="15"/>
     <row r="19" ht="15"/>
@@ -1252,7 +1199,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+      <selection activeCell="A2" sqref="A2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1268,10 +1215,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -1279,13 +1226,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>1300</v>
+        <v>375</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="4">
-        <v>33</v>
+      <c r="D2" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
@@ -1293,13 +1240,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>4700</v>
+        <v>1250</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="4">
-        <v>118</v>
+      <c r="D3" s="2">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
@@ -1307,13 +1254,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>14500</v>
+        <v>4125</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
       </c>
-      <c r="D4" s="4">
-        <v>363</v>
+      <c r="D4" s="2">
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
@@ -1321,13 +1268,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>29500</v>
+        <v>33875</v>
       </c>
       <c r="C5" s="2">
         <v>5</v>
       </c>
-      <c r="D5" s="4">
-        <v>738</v>
+      <c r="D5" s="2">
+        <v>847</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
@@ -1335,13 +1282,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>53300</v>
+        <v>118250</v>
       </c>
       <c r="C6" s="2">
         <v>8</v>
       </c>
-      <c r="D6" s="4">
-        <v>1333</v>
+      <c r="D6" s="2">
+        <v>2957</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
@@ -1349,13 +1296,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>124100</v>
+        <v>340125</v>
       </c>
       <c r="C7" s="2">
         <v>10</v>
       </c>
-      <c r="D7" s="4">
-        <v>3103</v>
+      <c r="D7" s="2">
+        <v>8504</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15">
@@ -1363,13 +1310,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>205700</v>
+        <v>772500</v>
       </c>
       <c r="C8" s="2">
         <v>15</v>
       </c>
-      <c r="D8" s="4">
-        <v>5143</v>
+      <c r="D8" s="2">
+        <v>19313</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
@@ -1377,13 +1324,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>447500</v>
+        <v>1646750</v>
       </c>
       <c r="C9" s="2">
         <v>20</v>
       </c>
-      <c r="D9" s="4">
-        <v>11188</v>
+      <c r="D9" s="2">
+        <v>41169</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15">
@@ -1391,13 +1338,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>687400</v>
+        <v>3923250</v>
       </c>
       <c r="C10" s="2">
         <v>30</v>
       </c>
-      <c r="D10" s="4">
-        <v>17185</v>
+      <c r="D10" s="2">
+        <v>98082</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
@@ -1405,13 +1352,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>1008300</v>
+        <v>7156500</v>
       </c>
       <c r="C11" s="2">
         <v>40</v>
       </c>
-      <c r="D11" s="4">
-        <v>25208</v>
+      <c r="D11" s="2">
+        <v>178913</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15"/>
@@ -1443,7 +1390,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1453,28 +1400,28 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="15">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15">
@@ -1482,7 +1429,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>400</v>
+        <v>345</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1499,8 +1446,8 @@
       <c r="G2" s="2">
         <v>0</v>
       </c>
-      <c r="H2" s="4">
-        <v>10</v>
+      <c r="H2" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15">
@@ -1508,7 +1455,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>2500</v>
+        <v>1150</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
@@ -1525,8 +1472,8 @@
       <c r="G3" s="2">
         <v>0</v>
       </c>
-      <c r="H3" s="4">
-        <v>63</v>
+      <c r="H3" s="2">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15">
@@ -1534,7 +1481,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>7000</v>
+        <v>3795</v>
       </c>
       <c r="C4" s="2">
         <v>4</v>
@@ -1551,8 +1498,8 @@
       <c r="G4" s="2">
         <v>0</v>
       </c>
-      <c r="H4" s="4">
-        <v>175</v>
+      <c r="H4" s="2">
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15">
@@ -1560,7 +1507,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>19300</v>
+        <v>31165</v>
       </c>
       <c r="C5" s="2">
         <v>6</v>
@@ -1577,8 +1524,8 @@
       <c r="G5" s="2">
         <v>0</v>
       </c>
-      <c r="H5" s="4">
-        <v>483</v>
+      <c r="H5" s="2">
+        <v>780</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15">
@@ -1586,7 +1533,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>36900</v>
+        <v>108790</v>
       </c>
       <c r="C6" s="2">
         <v>7</v>
@@ -1603,8 +1550,8 @@
       <c r="G6" s="2">
         <v>0</v>
       </c>
-      <c r="H6" s="4">
-        <v>923</v>
+      <c r="H6" s="2">
+        <v>2720</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15">
@@ -1612,7 +1559,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>64000</v>
+        <v>312915</v>
       </c>
       <c r="C7" s="2">
         <v>9</v>
@@ -1629,8 +1576,8 @@
       <c r="G7" s="2">
         <v>0</v>
       </c>
-      <c r="H7" s="4">
-        <v>1600</v>
+      <c r="H7" s="2">
+        <v>7823</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15">
@@ -1638,7 +1585,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>144800</v>
+        <v>710700</v>
       </c>
       <c r="C8" s="2">
         <v>10</v>
@@ -1655,8 +1602,8 @@
       <c r="G8" s="2">
         <v>0</v>
       </c>
-      <c r="H8" s="4">
-        <v>3620</v>
+      <c r="H8" s="2">
+        <v>17768</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15">
@@ -1664,7 +1611,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>235100</v>
+        <v>1515010</v>
       </c>
       <c r="C9" s="2">
         <v>12</v>
@@ -1681,8 +1628,8 @@
       <c r="G9" s="2">
         <v>0</v>
       </c>
-      <c r="H9" s="4">
-        <v>5878</v>
+      <c r="H9" s="2">
+        <v>37876</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15">
@@ -1690,7 +1637,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>503400</v>
+        <v>3609390</v>
       </c>
       <c r="C10" s="2">
         <v>13</v>
@@ -1707,8 +1654,8 @@
       <c r="G10" s="2">
         <v>0</v>
       </c>
-      <c r="H10" s="4">
-        <v>12585</v>
+      <c r="H10" s="2">
+        <v>90235</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15">
@@ -1716,7 +1663,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>763700</v>
+        <v>6583980</v>
       </c>
       <c r="C11" s="2">
         <v>15</v>
@@ -1733,8 +1680,8 @@
       <c r="G11" s="2">
         <v>0</v>
       </c>
-      <c r="H11" s="4">
-        <v>19093</v>
+      <c r="H11" s="2">
+        <v>164600</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15"/>
@@ -1765,8 +1712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1782,13 +1729,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15">
@@ -1796,7 +1743,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>900</v>
+        <v>360</v>
       </c>
       <c r="C2" s="2">
         <v>150</v>
@@ -1804,8 +1751,8 @@
       <c r="D2" s="2">
         <v>7</v>
       </c>
-      <c r="E2" s="4">
-        <v>23</v>
+      <c r="E2" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15">
@@ -1813,7 +1760,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="C3" s="2">
         <v>200</v>
@@ -1821,8 +1768,8 @@
       <c r="D3" s="2">
         <v>9</v>
       </c>
-      <c r="E3" s="4">
-        <v>88</v>
+      <c r="E3" s="2">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15">
@@ -1830,7 +1777,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>9100</v>
+        <v>3960</v>
       </c>
       <c r="C4" s="2">
         <v>250</v>
@@ -1838,8 +1785,8 @@
       <c r="D4" s="2">
         <v>11</v>
       </c>
-      <c r="E4" s="4">
-        <v>228</v>
+      <c r="E4" s="2">
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15">
@@ -1847,7 +1794,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>24100</v>
+        <v>32520</v>
       </c>
       <c r="C5" s="2">
         <v>300</v>
@@ -1855,8 +1802,8 @@
       <c r="D5" s="2">
         <v>13</v>
       </c>
-      <c r="E5" s="4">
-        <v>603</v>
+      <c r="E5" s="2">
+        <v>813</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15">
@@ -1864,7 +1811,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>44600</v>
+        <v>113520</v>
       </c>
       <c r="C6" s="2">
         <v>350</v>
@@ -1872,8 +1819,8 @@
       <c r="D6" s="2">
         <v>15</v>
       </c>
-      <c r="E6" s="4">
-        <v>1115</v>
+      <c r="E6" s="2">
+        <v>2838</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15">
@@ -1881,7 +1828,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>105900</v>
+        <v>326520</v>
       </c>
       <c r="C7" s="2">
         <v>400</v>
@@ -1889,8 +1836,8 @@
       <c r="D7" s="2">
         <v>17</v>
       </c>
-      <c r="E7" s="4">
-        <v>2648</v>
+      <c r="E7" s="2">
+        <v>8163</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15">
@@ -1898,7 +1845,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>168400</v>
+        <v>741600</v>
       </c>
       <c r="C8" s="2">
         <v>450</v>
@@ -1906,8 +1853,8 @@
       <c r="D8" s="2">
         <v>19</v>
       </c>
-      <c r="E8" s="4">
-        <v>4210</v>
+      <c r="E8" s="2">
+        <v>18540</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15">
@@ -1915,7 +1862,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>282700</v>
+        <v>1580880</v>
       </c>
       <c r="C9" s="2">
         <v>500</v>
@@ -1923,8 +1870,8 @@
       <c r="D9" s="2">
         <v>21</v>
       </c>
-      <c r="E9" s="4">
-        <v>7068</v>
+      <c r="E9" s="2">
+        <v>39522</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15">
@@ -1932,7 +1879,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>591100</v>
+        <v>3766320</v>
       </c>
       <c r="C10" s="2">
         <v>550</v>
@@ -1940,8 +1887,8 @@
       <c r="D10" s="2">
         <v>23</v>
       </c>
-      <c r="E10" s="4">
-        <v>14778</v>
+      <c r="E10" s="2">
+        <v>94158</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15">
@@ -1949,7 +1896,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>880800</v>
+        <v>6870240</v>
       </c>
       <c r="C11" s="2">
         <v>600</v>
@@ -1957,8 +1904,8 @@
       <c r="D11" s="2">
         <v>25</v>
       </c>
-      <c r="E11" s="4">
-        <v>22020</v>
+      <c r="E11" s="2">
+        <v>171756</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15"/>

--- a/datas/shared/AllianceBuilding.xlsx
+++ b/datas/shared/AllianceBuilding.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1780" windowWidth="25600" windowHeight="17000" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="5180" yWindow="1780" windowWidth="25600" windowHeight="17000" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="palace" sheetId="1" r:id="rId1"/>
@@ -237,8 +237,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="113">
+  <cellStyleXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -370,7 +372,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="113">
+  <cellStyles count="115">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -427,6 +429,7 @@
     <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -483,6 +486,7 @@
     <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1005,7 +1009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A3" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1389,8 +1393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1432,16 +1436,16 @@
         <v>345</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -1458,16 +1462,16 @@
         <v>1150</v>
       </c>
       <c r="C3" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -1484,16 +1488,16 @@
         <v>3795</v>
       </c>
       <c r="C4" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E4" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -1510,16 +1514,16 @@
         <v>31165</v>
       </c>
       <c r="C5" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -1536,16 +1540,16 @@
         <v>108790</v>
       </c>
       <c r="C6" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -1614,16 +1618,16 @@
         <v>1515010</v>
       </c>
       <c r="C9" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
@@ -1712,7 +1716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>

--- a/datas/shared/AllianceBuilding.xlsx
+++ b/datas/shared/AllianceBuilding.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1780" windowWidth="25600" windowHeight="17000" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="4940" yWindow="3060" windowWidth="25600" windowHeight="17000" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="palace" sheetId="1" r:id="rId1"/>
@@ -45,10 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>INT_pRecovery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_memberCount</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -130,6 +126,10 @@
   </si>
   <si>
     <t>woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,dragonChest_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_pRecoveryPerHour</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -237,8 +237,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="115">
+  <cellStyleXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -372,7 +376,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="115">
+  <cellStyles count="119">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -430,6 +434,8 @@
     <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -487,6 +493,8 @@
     <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -835,7 +843,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1028,10 +1036,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -1042,7 +1050,7 @@
         <v>330</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2">
         <v>9</v>
@@ -1056,7 +1064,7 @@
         <v>1100</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2">
         <v>28</v>
@@ -1070,7 +1078,7 @@
         <v>3630</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2">
         <v>91</v>
@@ -1084,7 +1092,7 @@
         <v>29810</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2">
         <v>746</v>
@@ -1098,7 +1106,7 @@
         <v>104060</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2">
         <v>2602</v>
@@ -1112,7 +1120,7 @@
         <v>299310</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2">
         <v>7483</v>
@@ -1126,7 +1134,7 @@
         <v>679800</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2">
         <v>16995</v>
@@ -1140,7 +1148,7 @@
         <v>1449140</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2">
         <v>36229</v>
@@ -1154,7 +1162,7 @@
         <v>3452460</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2">
         <v>86312</v>
@@ -1168,7 +1176,7 @@
         <v>6297720</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2">
         <v>157443</v>
@@ -1393,7 +1401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F11"/>
     </sheetView>
   </sheetViews>
@@ -1404,25 +1412,25 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="15">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
@@ -1716,8 +1724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1733,10 +1741,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>

--- a/datas/shared/AllianceBuilding.xlsx
+++ b/datas/shared/AllianceBuilding.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="3060" windowWidth="25600" windowHeight="17000" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="6320" yWindow="1380" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="palace" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>INT_level</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -53,22 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>INT_stoneVillageCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_ironVillageCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_foodVillageCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_coinVillageCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_perception</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -81,10 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>INT_woodVillageCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>STR_itemsUnlock</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,6 +110,10 @@
   </si>
   <si>
     <t>INT_pRecoveryPerHour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_villageCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -237,8 +221,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="119">
+  <cellStyleXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -376,7 +392,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="119">
+  <cellStyles count="151">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -436,6 +452,22 @@
     <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -495,6 +527,22 @@
     <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -827,7 +875,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -854,13 +902,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>300</v>
+        <v>17200</v>
       </c>
       <c r="C2" s="2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2">
-        <v>8</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
@@ -868,13 +916,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>1000</v>
+        <v>34500</v>
       </c>
       <c r="C3" s="2">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2">
-        <v>25</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
@@ -882,13 +930,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>3300</v>
+        <v>69000</v>
       </c>
       <c r="C4" s="2">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2">
-        <v>83</v>
+        <v>690</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
@@ -896,13 +944,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>27100</v>
+        <v>138100</v>
       </c>
       <c r="C5" s="2">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2">
-        <v>678</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
@@ -910,13 +958,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>94600</v>
+        <v>276200</v>
       </c>
       <c r="C6" s="2">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2">
-        <v>2365</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
@@ -924,13 +972,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>272100</v>
+        <v>552400</v>
       </c>
       <c r="C7" s="2">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2">
-        <v>6803</v>
+        <v>5524</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15">
@@ -938,13 +986,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>618000</v>
+        <v>1277300</v>
       </c>
       <c r="C8" s="2">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2">
-        <v>15450</v>
+        <v>12773</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
@@ -952,13 +1000,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>1317400</v>
+        <v>2404100</v>
       </c>
       <c r="C9" s="2">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2">
-        <v>32935</v>
+        <v>24041</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15">
@@ -966,13 +1014,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>3138600</v>
+        <v>4757700</v>
       </c>
       <c r="C10" s="2">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2">
-        <v>78465</v>
+        <v>47577</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
@@ -980,13 +1028,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>5725200</v>
+        <v>8785200</v>
       </c>
       <c r="C11" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2">
-        <v>143130</v>
+        <v>87852</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15"/>
@@ -1018,7 +1066,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1036,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -1047,13 +1095,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>330</v>
+        <v>12000</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2">
-        <v>9</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30">
@@ -1061,13 +1109,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>1100</v>
+        <v>24100</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2">
-        <v>28</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="45">
@@ -1075,13 +1123,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>3630</v>
+        <v>48300</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2">
-        <v>91</v>
+        <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="60">
@@ -1089,13 +1137,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>29810</v>
+        <v>96600</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2">
-        <v>746</v>
+        <v>966</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="60">
@@ -1103,13 +1151,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>104060</v>
+        <v>193300</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2">
-        <v>2602</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="75">
@@ -1117,13 +1165,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>299310</v>
+        <v>386700</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2">
-        <v>7483</v>
+        <v>3867</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="90">
@@ -1131,13 +1179,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>679800</v>
+        <v>894100</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2">
-        <v>16995</v>
+        <v>8941</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="90">
@@ -1145,27 +1193,27 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>1449140</v>
+        <v>1682800</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2">
-        <v>36229</v>
+        <v>16828</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="105">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <v>3452460</v>
+      <c r="B10" s="2">
+        <v>3330300</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2">
-        <v>86312</v>
+        <v>33303</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="120">
@@ -1173,13 +1221,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>6297720</v>
+        <v>6149600</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2">
-        <v>157443</v>
+        <v>61496</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15"/>
@@ -1211,7 +1259,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D11"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1238,13 +1286,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>375</v>
+        <v>21500</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2">
-        <v>10</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
@@ -1252,13 +1300,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>1250</v>
+        <v>43100</v>
       </c>
       <c r="C3" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>32</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
@@ -1266,13 +1314,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>4125</v>
+        <v>86300</v>
       </c>
       <c r="C4" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2">
-        <v>104</v>
+        <v>863</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
@@ -1280,13 +1328,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>33875</v>
+        <v>172600</v>
       </c>
       <c r="C5" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2">
-        <v>847</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
@@ -1294,13 +1342,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>118250</v>
+        <v>345200</v>
       </c>
       <c r="C6" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2">
-        <v>2957</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
@@ -1308,13 +1356,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>340125</v>
+        <v>690500</v>
       </c>
       <c r="C7" s="2">
         <v>10</v>
       </c>
       <c r="D7" s="2">
-        <v>8504</v>
+        <v>6905</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15">
@@ -1322,13 +1370,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>772500</v>
+        <v>1596700</v>
       </c>
       <c r="C8" s="2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2">
-        <v>19313</v>
+        <v>15967</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
@@ -1336,13 +1384,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>1646750</v>
+        <v>3005100</v>
       </c>
       <c r="C9" s="2">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2">
-        <v>41169</v>
+        <v>30051</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15">
@@ -1350,27 +1398,27 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>3923250</v>
+        <v>5947100</v>
       </c>
       <c r="C10" s="2">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2">
-        <v>98082</v>
+        <v>59471</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
-        <v>7156500</v>
+      <c r="B11" s="2">
+        <v>10981500</v>
       </c>
       <c r="C11" s="2">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2">
-        <v>178913</v>
+        <v>109815</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15"/>
@@ -1399,10 +1447,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F11"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1410,297 +1458,165 @@
     <col min="1" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="15">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>345</v>
-      </c>
-      <c r="C2" s="2">
+        <v>15500</v>
+      </c>
+      <c r="C2" s="3">
         <v>4</v>
       </c>
       <c r="D2" s="2">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>1150</v>
-      </c>
-      <c r="C3" s="2">
+        <v>31000</v>
+      </c>
+      <c r="C3" s="3">
         <v>5</v>
       </c>
       <c r="D3" s="2">
-        <v>5</v>
-      </c>
-      <c r="E3" s="2">
-        <v>5</v>
-      </c>
-      <c r="F3" s="2">
-        <v>5</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>3795</v>
-      </c>
-      <c r="C4" s="2">
+        <v>62100</v>
+      </c>
+      <c r="C4" s="3">
         <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2">
-        <v>6</v>
-      </c>
-      <c r="F4" s="2">
-        <v>6</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>31165</v>
-      </c>
-      <c r="C5" s="2">
+        <v>124200</v>
+      </c>
+      <c r="C5" s="3">
         <v>7</v>
       </c>
       <c r="D5" s="2">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2">
-        <v>7</v>
-      </c>
-      <c r="F5" s="2">
-        <v>7</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>108790</v>
-      </c>
-      <c r="C6" s="2">
+        <v>248500</v>
+      </c>
+      <c r="C6" s="3">
         <v>8</v>
       </c>
       <c r="D6" s="2">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2">
-        <v>8</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>2720</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>312915</v>
-      </c>
-      <c r="C7" s="2">
+        <v>497100</v>
+      </c>
+      <c r="C7" s="3">
         <v>9</v>
       </c>
       <c r="D7" s="2">
-        <v>9</v>
-      </c>
-      <c r="E7" s="2">
-        <v>9</v>
-      </c>
-      <c r="F7" s="2">
-        <v>9</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>7823</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15">
+        <v>4971</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>710700</v>
-      </c>
-      <c r="C8" s="2">
+        <v>1149600</v>
+      </c>
+      <c r="C8" s="3">
         <v>10</v>
       </c>
       <c r="D8" s="2">
-        <v>10</v>
-      </c>
-      <c r="E8" s="2">
-        <v>10</v>
-      </c>
-      <c r="F8" s="2">
-        <v>10</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>17768</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15">
+        <v>11496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>1515010</v>
-      </c>
-      <c r="C9" s="2">
+        <v>2163700</v>
+      </c>
+      <c r="C9" s="3">
         <v>11</v>
       </c>
       <c r="D9" s="2">
-        <v>11</v>
-      </c>
-      <c r="E9" s="2">
-        <v>11</v>
-      </c>
-      <c r="F9" s="2">
-        <v>11</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>37876</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15">
+        <v>21637</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <v>3609390</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="B10" s="2">
+        <v>4281900</v>
+      </c>
+      <c r="C10" s="3">
         <v>13</v>
       </c>
       <c r="D10" s="2">
-        <v>13</v>
-      </c>
-      <c r="E10" s="2">
-        <v>13</v>
-      </c>
-      <c r="F10" s="2">
-        <v>13</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>90235</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15">
+        <v>42819</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
-        <v>6583980</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="B11" s="2">
+        <v>7906600</v>
+      </c>
+      <c r="C11" s="3">
         <v>15</v>
       </c>
       <c r="D11" s="2">
-        <v>15</v>
-      </c>
-      <c r="E11" s="2">
-        <v>15</v>
-      </c>
-      <c r="F11" s="2">
-        <v>15</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>164600</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15"/>
-    <row r="13" spans="1:8" ht="15"/>
-    <row r="14" spans="1:8" ht="15"/>
-    <row r="15" spans="1:8" ht="15"/>
-    <row r="16" spans="1:8" ht="15"/>
+        <v>79066</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15"/>
+    <row r="13" spans="1:4" ht="15"/>
+    <row r="14" spans="1:4" ht="15"/>
+    <row r="15" spans="1:4" ht="15"/>
+    <row r="16" spans="1:4" ht="15"/>
     <row r="17" ht="15"/>
     <row r="18" ht="15"/>
     <row r="19" ht="15"/>
@@ -1724,8 +1640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1741,10 +1657,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -1755,7 +1671,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>360</v>
+        <v>13800</v>
       </c>
       <c r="C2" s="2">
         <v>150</v>
@@ -1764,7 +1680,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="2">
-        <v>9</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15">
@@ -1772,7 +1688,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>1200</v>
+        <v>27600</v>
       </c>
       <c r="C3" s="2">
         <v>200</v>
@@ -1781,7 +1697,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="2">
-        <v>30</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15">
@@ -1789,7 +1705,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>3960</v>
+        <v>55200</v>
       </c>
       <c r="C4" s="2">
         <v>250</v>
@@ -1798,7 +1714,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="2">
-        <v>99</v>
+        <v>552</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15">
@@ -1806,7 +1722,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>32520</v>
+        <v>110400</v>
       </c>
       <c r="C5" s="2">
         <v>300</v>
@@ -1815,7 +1731,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="2">
-        <v>813</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15">
@@ -1823,7 +1739,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>113520</v>
+        <v>220900</v>
       </c>
       <c r="C6" s="2">
         <v>350</v>
@@ -1832,7 +1748,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="2">
-        <v>2838</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15">
@@ -1840,7 +1756,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>326520</v>
+        <v>441900</v>
       </c>
       <c r="C7" s="2">
         <v>400</v>
@@ -1849,7 +1765,7 @@
         <v>17</v>
       </c>
       <c r="E7" s="2">
-        <v>8163</v>
+        <v>4419</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15">
@@ -1857,7 +1773,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>741600</v>
+        <v>1021900</v>
       </c>
       <c r="C8" s="2">
         <v>450</v>
@@ -1866,7 +1782,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="2">
-        <v>18540</v>
+        <v>10219</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15">
@@ -1874,7 +1790,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>1580880</v>
+        <v>1923300</v>
       </c>
       <c r="C9" s="2">
         <v>500</v>
@@ -1883,7 +1799,7 @@
         <v>21</v>
       </c>
       <c r="E9" s="2">
-        <v>39522</v>
+        <v>19233</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15">
@@ -1891,7 +1807,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>3766320</v>
+        <v>3806100</v>
       </c>
       <c r="C10" s="2">
         <v>550</v>
@@ -1900,15 +1816,15 @@
         <v>23</v>
       </c>
       <c r="E10" s="2">
-        <v>94158</v>
+        <v>38061</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
-        <v>6870240</v>
+      <c r="B11" s="2">
+        <v>7028100</v>
       </c>
       <c r="C11" s="2">
         <v>600</v>
@@ -1917,7 +1833,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="2">
-        <v>171756</v>
+        <v>70281</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15"/>

--- a/datas/shared/AllianceBuilding.xlsx
+++ b/datas/shared/AllianceBuilding.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6320" yWindow="1380" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="6320" yWindow="1380" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="palace" sheetId="1" r:id="rId1"/>
@@ -221,8 +221,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="151">
+  <cellStyleXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -392,7 +414,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="151">
+  <cellStyles count="173">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -468,6 +490,17 @@
     <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -543,6 +576,17 @@
     <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -874,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -908,7 +952,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="2">
-        <v>172</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
@@ -922,7 +966,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="2">
-        <v>345</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
@@ -936,7 +980,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="2">
-        <v>690</v>
+        <v>6900</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
@@ -950,7 +994,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="2">
-        <v>1381</v>
+        <v>13810</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
@@ -964,7 +1008,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="2">
-        <v>2762</v>
+        <v>27620</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
@@ -978,7 +1022,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="2">
-        <v>5524</v>
+        <v>55240</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15">
@@ -992,7 +1036,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="2">
-        <v>12773</v>
+        <v>127730</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
@@ -1006,7 +1050,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="2">
-        <v>24041</v>
+        <v>240410</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15">
@@ -1020,7 +1064,7 @@
         <v>19</v>
       </c>
       <c r="D10" s="2">
-        <v>47577</v>
+        <v>475770</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
@@ -1034,7 +1078,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="2">
-        <v>87852</v>
+        <v>878520</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15"/>
@@ -1066,7 +1110,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1101,7 +1145,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="2">
-        <v>120</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30">
@@ -1115,7 +1159,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="2">
-        <v>241</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="45">
@@ -1129,7 +1173,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="2">
-        <v>483</v>
+        <v>4830</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="60">
@@ -1143,7 +1187,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="2">
-        <v>966</v>
+        <v>9660</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="60">
@@ -1157,7 +1201,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="2">
-        <v>1933</v>
+        <v>19330</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="75">
@@ -1171,7 +1215,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="2">
-        <v>3867</v>
+        <v>38670</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="90">
@@ -1185,7 +1229,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="2">
-        <v>8941</v>
+        <v>89410</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="90">
@@ -1199,7 +1243,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="2">
-        <v>16828</v>
+        <v>168280</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="105">
@@ -1213,7 +1257,7 @@
         <v>17</v>
       </c>
       <c r="D10" s="2">
-        <v>33303</v>
+        <v>333030</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="120">
@@ -1227,7 +1271,7 @@
         <v>18</v>
       </c>
       <c r="D11" s="2">
-        <v>61496</v>
+        <v>614960</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15"/>
@@ -1259,7 +1303,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E2" sqref="E2:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1292,7 +1336,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="2">
-        <v>215</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
@@ -1306,7 +1350,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>431</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
@@ -1320,7 +1364,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="2">
-        <v>863</v>
+        <v>8630</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
@@ -1334,7 +1378,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="2">
-        <v>1726</v>
+        <v>17260</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
@@ -1348,7 +1392,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="2">
-        <v>3452</v>
+        <v>34520</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
@@ -1362,7 +1406,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="2">
-        <v>6905</v>
+        <v>69050</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15">
@@ -1376,7 +1420,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="2">
-        <v>15967</v>
+        <v>159670</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
@@ -1390,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="2">
-        <v>30051</v>
+        <v>300510</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15">
@@ -1404,7 +1448,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="2">
-        <v>59471</v>
+        <v>594710</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
@@ -1418,7 +1462,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="2">
-        <v>109815</v>
+        <v>1098150</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15"/>
@@ -1449,8 +1493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1483,7 +1527,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="2">
-        <v>155</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
@@ -1497,7 +1541,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="2">
-        <v>310</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
@@ -1511,7 +1555,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>621</v>
+        <v>6210</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
@@ -1525,7 +1569,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="2">
-        <v>1242</v>
+        <v>12420</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
@@ -1539,7 +1583,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="2">
-        <v>2485</v>
+        <v>24850</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
@@ -1553,7 +1597,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="2">
-        <v>4971</v>
+        <v>49710</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15">
@@ -1567,7 +1611,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="2">
-        <v>11496</v>
+        <v>114960</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
@@ -1581,7 +1625,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="2">
-        <v>21637</v>
+        <v>216370</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15">
@@ -1595,7 +1639,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="2">
-        <v>42819</v>
+        <v>428190</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
@@ -1609,7 +1653,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="2">
-        <v>79066</v>
+        <v>790660</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15"/>
@@ -1641,7 +1685,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1680,7 +1724,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="2">
-        <v>138</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15">
@@ -1697,7 +1741,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="2">
-        <v>276</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15">
@@ -1714,7 +1758,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="2">
-        <v>552</v>
+        <v>5520</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15">
@@ -1731,7 +1775,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="2">
-        <v>1104</v>
+        <v>11040</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15">
@@ -1748,7 +1792,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="2">
-        <v>2209</v>
+        <v>22090</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15">
@@ -1765,7 +1809,7 @@
         <v>17</v>
       </c>
       <c r="E7" s="2">
-        <v>4419</v>
+        <v>44190</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15">
@@ -1782,7 +1826,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="2">
-        <v>10219</v>
+        <v>102190</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15">
@@ -1799,7 +1843,7 @@
         <v>21</v>
       </c>
       <c r="E9" s="2">
-        <v>19233</v>
+        <v>192330</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15">
@@ -1816,7 +1860,7 @@
         <v>23</v>
       </c>
       <c r="E10" s="2">
-        <v>38061</v>
+        <v>380610</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15">
@@ -1833,7 +1877,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="2">
-        <v>70281</v>
+        <v>702810</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15"/>

--- a/datas/shared/AllianceBuilding.xlsx
+++ b/datas/shared/AllianceBuilding.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6320" yWindow="1380" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="1480" yWindow="1520" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="palace" sheetId="1" r:id="rId1"/>
@@ -221,8 +221,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="173">
+  <cellStyleXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -414,7 +438,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="173">
+  <cellStyles count="197">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -501,6 +525,18 @@
     <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="195" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -587,6 +623,18 @@
     <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -918,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -952,7 +1000,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="2">
-        <v>1720</v>
+        <v>860</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
@@ -966,7 +1014,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="2">
-        <v>3450</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
@@ -980,7 +1028,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="2">
-        <v>6900</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
@@ -994,7 +1042,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="2">
-        <v>13810</v>
+        <v>6905</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
@@ -1008,7 +1056,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="2">
-        <v>27620</v>
+        <v>13810</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
@@ -1022,7 +1070,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="2">
-        <v>55240</v>
+        <v>27620</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15">
@@ -1036,7 +1084,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="2">
-        <v>127730</v>
+        <v>63865</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
@@ -1050,7 +1098,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="2">
-        <v>240410</v>
+        <v>120205</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15">
@@ -1064,7 +1112,7 @@
         <v>19</v>
       </c>
       <c r="D10" s="2">
-        <v>475770</v>
+        <v>237885</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
@@ -1078,7 +1126,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="2">
-        <v>878520</v>
+        <v>439260</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15"/>
@@ -1145,7 +1193,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="2">
-        <v>1200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30">
@@ -1159,7 +1207,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="2">
-        <v>2410</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="45">
@@ -1173,7 +1221,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="2">
-        <v>4830</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="60">
@@ -1187,7 +1235,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="2">
-        <v>9660</v>
+        <v>4830</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="60">
@@ -1201,7 +1249,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="2">
-        <v>19330</v>
+        <v>9665</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="75">
@@ -1215,7 +1263,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="2">
-        <v>38670</v>
+        <v>19335</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="90">
@@ -1229,7 +1277,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="2">
-        <v>89410</v>
+        <v>44705</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="90">
@@ -1243,7 +1291,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="2">
-        <v>168280</v>
+        <v>84140</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="105">
@@ -1257,7 +1305,7 @@
         <v>17</v>
       </c>
       <c r="D10" s="2">
-        <v>333030</v>
+        <v>166515</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="120">
@@ -1271,7 +1319,7 @@
         <v>18</v>
       </c>
       <c r="D11" s="2">
-        <v>614960</v>
+        <v>307480</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15"/>
@@ -1302,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E14"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1336,7 +1384,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="2">
-        <v>2150</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
@@ -1350,7 +1398,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>4310</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
@@ -1364,7 +1412,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="2">
-        <v>8630</v>
+        <v>4315</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
@@ -1378,7 +1426,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="2">
-        <v>17260</v>
+        <v>8630</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
@@ -1392,7 +1440,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="2">
-        <v>34520</v>
+        <v>17260</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
@@ -1406,7 +1454,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="2">
-        <v>69050</v>
+        <v>34525</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15">
@@ -1420,7 +1468,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="2">
-        <v>159670</v>
+        <v>79835</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
@@ -1434,7 +1482,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="2">
-        <v>300510</v>
+        <v>150255</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15">
@@ -1448,7 +1496,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="2">
-        <v>594710</v>
+        <v>297355</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
@@ -1462,7 +1510,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="2">
-        <v>1098150</v>
+        <v>549075</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15"/>
@@ -1494,7 +1542,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1527,7 +1575,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="2">
-        <v>1550</v>
+        <v>775</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
@@ -1541,7 +1589,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="2">
-        <v>3100</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
@@ -1555,7 +1603,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>6210</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
@@ -1569,7 +1617,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="2">
-        <v>12420</v>
+        <v>6210</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
@@ -1583,7 +1631,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="2">
-        <v>24850</v>
+        <v>12425</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
@@ -1597,7 +1645,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="2">
-        <v>49710</v>
+        <v>24855</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15">
@@ -1611,7 +1659,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="2">
-        <v>114960</v>
+        <v>57480</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
@@ -1625,7 +1673,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="2">
-        <v>216370</v>
+        <v>108185</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15">
@@ -1639,7 +1687,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="2">
-        <v>428190</v>
+        <v>214095</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
@@ -1653,7 +1701,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="2">
-        <v>790660</v>
+        <v>395330</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15"/>
@@ -1685,7 +1733,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1724,7 +1772,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="2">
-        <v>1380</v>
+        <v>690</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15">
@@ -1741,7 +1789,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="2">
-        <v>2760</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15">
@@ -1758,7 +1806,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="2">
-        <v>5520</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15">
@@ -1775,7 +1823,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="2">
-        <v>11040</v>
+        <v>5520</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15">
@@ -1792,7 +1840,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="2">
-        <v>22090</v>
+        <v>11045</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15">
@@ -1809,7 +1857,7 @@
         <v>17</v>
       </c>
       <c r="E7" s="2">
-        <v>44190</v>
+        <v>22095</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15">
@@ -1826,7 +1874,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="2">
-        <v>102190</v>
+        <v>51095</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15">
@@ -1843,7 +1891,7 @@
         <v>21</v>
       </c>
       <c r="E9" s="2">
-        <v>192330</v>
+        <v>96165</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15">
@@ -1860,7 +1908,7 @@
         <v>23</v>
       </c>
       <c r="E10" s="2">
-        <v>380610</v>
+        <v>190305</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15">
@@ -1877,7 +1925,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="2">
-        <v>702810</v>
+        <v>351405</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15"/>

--- a/datas/shared/AllianceBuilding.xlsx
+++ b/datas/shared/AllianceBuilding.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="1520" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="1480" yWindow="1520" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="palace" sheetId="1" r:id="rId1"/>
@@ -221,8 +221,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="197">
+  <cellStyleXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -438,7 +446,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="197">
+  <cellStyles count="205">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -537,6 +545,10 @@
     <cellStyle name="超链接" xfId="191" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="193" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="203" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -635,6 +647,10 @@
     <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1350,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1381,7 +1397,7 @@
         <v>21500</v>
       </c>
       <c r="C2" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2">
         <v>1075</v>
@@ -1395,7 +1411,7 @@
         <v>43100</v>
       </c>
       <c r="C3" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2">
         <v>2155</v>
@@ -1409,7 +1425,7 @@
         <v>86300</v>
       </c>
       <c r="C4" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2">
         <v>4315</v>
@@ -1423,7 +1439,7 @@
         <v>172600</v>
       </c>
       <c r="C5" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2">
         <v>8630</v>
@@ -1437,7 +1453,7 @@
         <v>345200</v>
       </c>
       <c r="C6" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2">
         <v>17260</v>
@@ -1451,7 +1467,7 @@
         <v>690500</v>
       </c>
       <c r="C7" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2">
         <v>34525</v>
@@ -1465,7 +1481,7 @@
         <v>1596700</v>
       </c>
       <c r="C8" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2">
         <v>79835</v>
@@ -1479,7 +1495,7 @@
         <v>3005100</v>
       </c>
       <c r="C9" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2">
         <v>150255</v>
@@ -1493,7 +1509,7 @@
         <v>5947100</v>
       </c>
       <c r="C10" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2">
         <v>297355</v>
@@ -1507,7 +1523,7 @@
         <v>10981500</v>
       </c>
       <c r="C11" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2">
         <v>549075</v>
@@ -1541,8 +1557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1586,7 +1602,7 @@
         <v>31000</v>
       </c>
       <c r="C3" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2">
         <v>1550</v>
@@ -1600,7 +1616,7 @@
         <v>62100</v>
       </c>
       <c r="C4" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2">
         <v>3105</v>
@@ -1614,7 +1630,7 @@
         <v>124200</v>
       </c>
       <c r="C5" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2">
         <v>6210</v>
@@ -1628,7 +1644,7 @@
         <v>248500</v>
       </c>
       <c r="C6" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2">
         <v>12425</v>
@@ -1642,7 +1658,7 @@
         <v>497100</v>
       </c>
       <c r="C7" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2">
         <v>24855</v>
@@ -1656,7 +1672,7 @@
         <v>1149600</v>
       </c>
       <c r="C8" s="3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2">
         <v>57480</v>
@@ -1670,7 +1686,7 @@
         <v>2163700</v>
       </c>
       <c r="C9" s="3">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2">
         <v>108185</v>
@@ -1684,7 +1700,7 @@
         <v>4281900</v>
       </c>
       <c r="C10" s="3">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2">
         <v>214095</v>
@@ -1698,7 +1714,7 @@
         <v>7906600</v>
       </c>
       <c r="C11" s="3">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2">
         <v>395330</v>

--- a/datas/shared/AllianceBuilding.xlsx
+++ b/datas/shared/AllianceBuilding.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="1520" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="11920" yWindow="4480" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="palace" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>INT_level</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -114,6 +114,10 @@
   </si>
   <si>
     <t>INT_villageCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_power</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -221,8 +225,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="205">
+  <cellStyleXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -446,7 +460,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="205">
+  <cellStyles count="215">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -549,6 +563,11 @@
     <cellStyle name="超链接" xfId="199" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="201" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="213" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -651,6 +670,11 @@
     <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -983,7 +1007,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1002,7 +1026,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -1010,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>17200</v>
+        <v>86300</v>
       </c>
       <c r="C2" s="2">
         <v>11</v>
@@ -1024,7 +1048,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>34500</v>
+        <v>172600</v>
       </c>
       <c r="C3" s="2">
         <v>12</v>
@@ -1038,7 +1062,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>69000</v>
+        <v>345200</v>
       </c>
       <c r="C4" s="2">
         <v>13</v>
@@ -1052,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>138100</v>
+        <v>690500</v>
       </c>
       <c r="C5" s="2">
         <v>14</v>
@@ -1066,7 +1090,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>276200</v>
+        <v>1381000</v>
       </c>
       <c r="C6" s="2">
         <v>15</v>
@@ -1080,7 +1104,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>552400</v>
+        <v>2762100</v>
       </c>
       <c r="C7" s="2">
         <v>16</v>
@@ -1094,7 +1118,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>1277300</v>
+        <v>6386800</v>
       </c>
       <c r="C8" s="2">
         <v>17</v>
@@ -1108,7 +1132,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>2404100</v>
+        <v>12020600</v>
       </c>
       <c r="C9" s="2">
         <v>18</v>
@@ -1122,7 +1146,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>4757700</v>
+        <v>23788500</v>
       </c>
       <c r="C10" s="2">
         <v>19</v>
@@ -1136,7 +1160,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>8785200</v>
+        <v>43926000</v>
       </c>
       <c r="C11" s="2">
         <v>20</v>
@@ -1174,13 +1198,13 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="20.6640625" style="2"/>
-    <col min="3" max="3" width="82.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="89.83203125" style="5" customWidth="1"/>
     <col min="4" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
@@ -1203,7 +1227,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>12000</v>
+        <v>60400</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>20</v>
@@ -1217,7 +1241,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>24100</v>
+        <v>120800</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>11</v>
@@ -1231,7 +1255,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>48300</v>
+        <v>241600</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>19</v>
@@ -1240,12 +1264,12 @@
         <v>2415</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="60">
+    <row r="5" spans="1:4" ht="45">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>96600</v>
+        <v>483300</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>12</v>
@@ -1259,7 +1283,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>193300</v>
+        <v>966700</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>13</v>
@@ -1273,7 +1297,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>386700</v>
+        <v>1933500</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>14</v>
@@ -1282,12 +1306,12 @@
         <v>19335</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="90">
+    <row r="8" spans="1:4" ht="75">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>894100</v>
+        <v>4470800</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>15</v>
@@ -1300,8 +1324,8 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
-        <v>1682800</v>
+      <c r="B9" s="2">
+        <v>8414400</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>16</v>
@@ -1310,12 +1334,12 @@
         <v>84140</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="105">
+    <row r="10" spans="1:4" ht="90">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>3330300</v>
+        <v>16651900</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>17</v>
@@ -1324,12 +1348,12 @@
         <v>166515</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="120">
+    <row r="11" spans="1:4" ht="105">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>6149600</v>
+        <v>30748200</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>18</v>
@@ -1367,7 +1391,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1394,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>21500</v>
+        <v>107800</v>
       </c>
       <c r="C2" s="2">
         <v>6</v>
@@ -1408,7 +1432,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>43100</v>
+        <v>215700</v>
       </c>
       <c r="C3" s="2">
         <v>7</v>
@@ -1422,7 +1446,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>86300</v>
+        <v>431500</v>
       </c>
       <c r="C4" s="2">
         <v>8</v>
@@ -1436,7 +1460,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>172600</v>
+        <v>863100</v>
       </c>
       <c r="C5" s="2">
         <v>9</v>
@@ -1450,7 +1474,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>345200</v>
+        <v>1726300</v>
       </c>
       <c r="C6" s="2">
         <v>10</v>
@@ -1464,7 +1488,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>690500</v>
+        <v>3452700</v>
       </c>
       <c r="C7" s="2">
         <v>11</v>
@@ -1478,7 +1502,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>1596700</v>
+        <v>7983600</v>
       </c>
       <c r="C8" s="2">
         <v>12</v>
@@ -1492,7 +1516,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>3005100</v>
+        <v>15025800</v>
       </c>
       <c r="C9" s="2">
         <v>13</v>
@@ -1505,8 +1529,8 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <v>5947100</v>
+      <c r="B10" s="2">
+        <v>29735600</v>
       </c>
       <c r="C10" s="2">
         <v>14</v>
@@ -1520,7 +1544,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>10981500</v>
+        <v>54907500</v>
       </c>
       <c r="C11" s="2">
         <v>15</v>
@@ -1557,8 +1581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:C26"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1585,7 +1609,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>15500</v>
+        <v>77600</v>
       </c>
       <c r="C2" s="3">
         <v>4</v>
@@ -1599,7 +1623,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>31000</v>
+        <v>155300</v>
       </c>
       <c r="C3" s="3">
         <v>6</v>
@@ -1613,7 +1637,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>62100</v>
+        <v>310700</v>
       </c>
       <c r="C4" s="3">
         <v>8</v>
@@ -1627,7 +1651,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>124200</v>
+        <v>621400</v>
       </c>
       <c r="C5" s="3">
         <v>10</v>
@@ -1641,7 +1665,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>248500</v>
+        <v>1242900</v>
       </c>
       <c r="C6" s="3">
         <v>12</v>
@@ -1655,7 +1679,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>497100</v>
+        <v>2485900</v>
       </c>
       <c r="C7" s="3">
         <v>14</v>
@@ -1669,7 +1693,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>1149600</v>
+        <v>5748100</v>
       </c>
       <c r="C8" s="3">
         <v>16</v>
@@ -1682,8 +1706,8 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
-        <v>2163700</v>
+      <c r="B9" s="2">
+        <v>10818600</v>
       </c>
       <c r="C9" s="3">
         <v>18</v>
@@ -1697,7 +1721,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>4281900</v>
+        <v>21409600</v>
       </c>
       <c r="C10" s="3">
         <v>20</v>
@@ -1711,7 +1735,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>7906600</v>
+        <v>39533400</v>
       </c>
       <c r="C11" s="3">
         <v>22</v>
@@ -1748,8 +1772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1779,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>13800</v>
+        <v>69000</v>
       </c>
       <c r="C2" s="2">
         <v>150</v>
@@ -1796,7 +1820,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>27600</v>
+        <v>138100</v>
       </c>
       <c r="C3" s="2">
         <v>200</v>
@@ -1813,7 +1837,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>55200</v>
+        <v>276200</v>
       </c>
       <c r="C4" s="2">
         <v>250</v>
@@ -1830,7 +1854,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>110400</v>
+        <v>552400</v>
       </c>
       <c r="C5" s="2">
         <v>300</v>
@@ -1847,7 +1871,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>220900</v>
+        <v>1104800</v>
       </c>
       <c r="C6" s="2">
         <v>350</v>
@@ -1864,7 +1888,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>441900</v>
+        <v>2209700</v>
       </c>
       <c r="C7" s="2">
         <v>400</v>
@@ -1881,7 +1905,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>1021900</v>
+        <v>5109500</v>
       </c>
       <c r="C8" s="2">
         <v>450</v>
@@ -1898,7 +1922,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>1923300</v>
+        <v>9616500</v>
       </c>
       <c r="C9" s="2">
         <v>500</v>
@@ -1914,8 +1938,8 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <v>3806100</v>
+      <c r="B10" s="2">
+        <v>19030800</v>
       </c>
       <c r="C10" s="2">
         <v>550</v>
@@ -1932,7 +1956,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>7028100</v>
+        <v>35140800</v>
       </c>
       <c r="C11" s="2">
         <v>600</v>

--- a/datas/shared/AllianceBuilding.xlsx
+++ b/datas/shared/AllianceBuilding.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11920" yWindow="4480" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="3840" yWindow="540" windowWidth="28420" windowHeight="20120" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="palace" sheetId="1" r:id="rId1"/>
@@ -225,8 +225,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="215">
+  <cellStyleXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -460,7 +472,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="215">
+  <cellStyles count="227">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -568,6 +580,12 @@
     <cellStyle name="超链接" xfId="209" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="211" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="225" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -675,6 +693,12 @@
     <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="226" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1007,7 +1031,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1034,7 +1058,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>86300</v>
+        <v>43150</v>
       </c>
       <c r="C2" s="2">
         <v>11</v>
@@ -1048,7 +1072,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>172600</v>
+        <v>86300</v>
       </c>
       <c r="C3" s="2">
         <v>12</v>
@@ -1062,7 +1086,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>345200</v>
+        <v>172600</v>
       </c>
       <c r="C4" s="2">
         <v>13</v>
@@ -1076,7 +1100,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>690500</v>
+        <v>345200</v>
       </c>
       <c r="C5" s="2">
         <v>14</v>
@@ -1090,7 +1114,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>1381000</v>
+        <v>690500</v>
       </c>
       <c r="C6" s="2">
         <v>15</v>
@@ -1104,7 +1128,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>2762100</v>
+        <v>1381000</v>
       </c>
       <c r="C7" s="2">
         <v>16</v>
@@ -1118,7 +1142,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>6386800</v>
+        <v>2762100</v>
       </c>
       <c r="C8" s="2">
         <v>17</v>
@@ -1132,7 +1156,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>12020600</v>
+        <v>6386800</v>
       </c>
       <c r="C9" s="2">
         <v>18</v>
@@ -1146,7 +1170,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>23788500</v>
+        <v>12020600</v>
       </c>
       <c r="C10" s="2">
         <v>19</v>
@@ -1160,7 +1184,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>43926000</v>
+        <v>23788500</v>
       </c>
       <c r="C11" s="2">
         <v>20</v>
@@ -1198,7 +1222,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1226,8 +1250,8 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>60400</v>
+      <c r="B2" s="2">
+        <v>30200</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>20</v>
@@ -1241,7 +1265,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>120800</v>
+        <v>60400</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>11</v>
@@ -1255,7 +1279,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>241600</v>
+        <v>120800</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>19</v>
@@ -1269,7 +1293,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>483300</v>
+        <v>241600</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>12</v>
@@ -1283,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>966700</v>
+        <v>483300</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>13</v>
@@ -1297,7 +1321,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>1933500</v>
+        <v>966700</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>14</v>
@@ -1311,7 +1335,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>4470800</v>
+        <v>1933500</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>15</v>
@@ -1324,8 +1348,8 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
-        <v>8414400</v>
+      <c r="B9" s="3">
+        <v>4470800</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>16</v>
@@ -1339,7 +1363,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>16651900</v>
+        <v>8414400</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>17</v>
@@ -1353,7 +1377,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>30748200</v>
+        <v>16651900</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>18</v>
@@ -1391,7 +1415,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1417,8 +1441,8 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>107800</v>
+      <c r="B2" s="2">
+        <v>53900</v>
       </c>
       <c r="C2" s="2">
         <v>6</v>
@@ -1432,7 +1456,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>215700</v>
+        <v>107800</v>
       </c>
       <c r="C3" s="2">
         <v>7</v>
@@ -1446,7 +1470,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>431500</v>
+        <v>215700</v>
       </c>
       <c r="C4" s="2">
         <v>8</v>
@@ -1460,7 +1484,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>863100</v>
+        <v>431500</v>
       </c>
       <c r="C5" s="2">
         <v>9</v>
@@ -1474,7 +1498,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>1726300</v>
+        <v>863100</v>
       </c>
       <c r="C6" s="2">
         <v>10</v>
@@ -1488,7 +1512,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>3452700</v>
+        <v>1726300</v>
       </c>
       <c r="C7" s="2">
         <v>11</v>
@@ -1502,7 +1526,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>7983600</v>
+        <v>3452700</v>
       </c>
       <c r="C8" s="2">
         <v>12</v>
@@ -1516,7 +1540,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>15025800</v>
+        <v>7983600</v>
       </c>
       <c r="C9" s="2">
         <v>13</v>
@@ -1529,8 +1553,8 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
-        <v>29735600</v>
+      <c r="B10" s="3">
+        <v>15025800</v>
       </c>
       <c r="C10" s="2">
         <v>14</v>
@@ -1544,7 +1568,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>54907500</v>
+        <v>29735600</v>
       </c>
       <c r="C11" s="2">
         <v>15</v>
@@ -1581,8 +1605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1608,8 +1632,8 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>77600</v>
+      <c r="B2" s="2">
+        <v>38800</v>
       </c>
       <c r="C2" s="3">
         <v>4</v>
@@ -1623,7 +1647,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>155300</v>
+        <v>77600</v>
       </c>
       <c r="C3" s="3">
         <v>6</v>
@@ -1637,7 +1661,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>310700</v>
+        <v>155300</v>
       </c>
       <c r="C4" s="3">
         <v>8</v>
@@ -1651,7 +1675,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>621400</v>
+        <v>310700</v>
       </c>
       <c r="C5" s="3">
         <v>10</v>
@@ -1665,7 +1689,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>1242900</v>
+        <v>621400</v>
       </c>
       <c r="C6" s="3">
         <v>12</v>
@@ -1679,7 +1703,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>2485900</v>
+        <v>1242900</v>
       </c>
       <c r="C7" s="3">
         <v>14</v>
@@ -1693,7 +1717,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>5748100</v>
+        <v>2485900</v>
       </c>
       <c r="C8" s="3">
         <v>16</v>
@@ -1706,8 +1730,8 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
-        <v>10818600</v>
+      <c r="B9" s="3">
+        <v>5748100</v>
       </c>
       <c r="C9" s="3">
         <v>18</v>
@@ -1721,7 +1745,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>21409600</v>
+        <v>10818600</v>
       </c>
       <c r="C10" s="3">
         <v>20</v>
@@ -1735,7 +1759,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>39533400</v>
+        <v>21409600</v>
       </c>
       <c r="C11" s="3">
         <v>22</v>
@@ -1772,8 +1796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1802,8 +1826,8 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>69000</v>
+      <c r="B2" s="2">
+        <v>34500</v>
       </c>
       <c r="C2" s="2">
         <v>150</v>
@@ -1820,7 +1844,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>138100</v>
+        <v>69000</v>
       </c>
       <c r="C3" s="2">
         <v>200</v>
@@ -1837,7 +1861,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>276200</v>
+        <v>138100</v>
       </c>
       <c r="C4" s="2">
         <v>250</v>
@@ -1854,7 +1878,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>552400</v>
+        <v>276200</v>
       </c>
       <c r="C5" s="2">
         <v>300</v>
@@ -1871,7 +1895,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>1104800</v>
+        <v>552400</v>
       </c>
       <c r="C6" s="2">
         <v>350</v>
@@ -1888,7 +1912,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>2209700</v>
+        <v>1104800</v>
       </c>
       <c r="C7" s="2">
         <v>400</v>
@@ -1905,7 +1929,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>5109500</v>
+        <v>2209700</v>
       </c>
       <c r="C8" s="2">
         <v>450</v>
@@ -1922,7 +1946,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>9616500</v>
+        <v>5109500</v>
       </c>
       <c r="C9" s="2">
         <v>500</v>
@@ -1938,8 +1962,8 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
-        <v>19030800</v>
+      <c r="B10" s="3">
+        <v>9616500</v>
       </c>
       <c r="C10" s="2">
         <v>550</v>
@@ -1956,7 +1980,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>35140800</v>
+        <v>19030800</v>
       </c>
       <c r="C11" s="2">
         <v>600</v>

--- a/datas/shared/AllianceBuilding.xlsx
+++ b/datas/shared/AllianceBuilding.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="540" windowWidth="28420" windowHeight="20120" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="9840" yWindow="0" windowWidth="28420" windowHeight="20120" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="palace" sheetId="1" r:id="rId1"/>
@@ -225,8 +225,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="227">
+  <cellStyleXfs count="257">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -472,7 +502,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="227">
+  <cellStyles count="257">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -586,6 +616,21 @@
     <cellStyle name="超链接" xfId="221" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="223" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="255" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -699,6 +744,21 @@
     <cellStyle name="访问过的超链接" xfId="222" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="224" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="256" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1031,7 +1091,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1058,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>43150</v>
+        <v>5800</v>
       </c>
       <c r="C2" s="2">
         <v>11</v>
@@ -1072,7 +1132,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>86300</v>
+        <v>11600</v>
       </c>
       <c r="C3" s="2">
         <v>12</v>
@@ -1086,7 +1146,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>172600</v>
+        <v>23300</v>
       </c>
       <c r="C4" s="2">
         <v>13</v>
@@ -1100,7 +1160,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>345200</v>
+        <v>46700</v>
       </c>
       <c r="C5" s="2">
         <v>14</v>
@@ -1114,7 +1174,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>690500</v>
+        <v>178100</v>
       </c>
       <c r="C6" s="2">
         <v>15</v>
@@ -1128,7 +1188,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>1381000</v>
+        <v>625100</v>
       </c>
       <c r="C7" s="2">
         <v>16</v>
@@ -1142,7 +1202,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>2762100</v>
+        <v>1890700</v>
       </c>
       <c r="C8" s="2">
         <v>17</v>
@@ -1156,7 +1216,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>6386800</v>
+        <v>3832100</v>
       </c>
       <c r="C9" s="2">
         <v>18</v>
@@ -1170,7 +1230,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>12020600</v>
+        <v>7212400</v>
       </c>
       <c r="C10" s="2">
         <v>19</v>
@@ -1184,7 +1244,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>23788500</v>
+        <v>14273100</v>
       </c>
       <c r="C11" s="2">
         <v>20</v>
@@ -1221,8 +1281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1250,8 +1310,8 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>30200</v>
+      <c r="B2" s="3">
+        <v>4000</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>20</v>
@@ -1265,7 +1325,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>60400</v>
+        <v>8100</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>11</v>
@@ -1279,7 +1339,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>120800</v>
+        <v>16300</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>19</v>
@@ -1293,7 +1353,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>241600</v>
+        <v>32600</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>12</v>
@@ -1307,7 +1367,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>483300</v>
+        <v>124600</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>13</v>
@@ -1321,7 +1381,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>966700</v>
+        <v>437500</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>14</v>
@@ -1335,7 +1395,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>1933500</v>
+        <v>1323500</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>15</v>
@@ -1348,8 +1408,8 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
-        <v>4470800</v>
+      <c r="B9" s="2">
+        <v>2682400</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>16</v>
@@ -1363,7 +1423,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>8414400</v>
+        <v>5048600</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>17</v>
@@ -1377,7 +1437,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>16651900</v>
+        <v>9991100</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>18</v>
@@ -1415,7 +1475,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1441,8 +1501,8 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>53900</v>
+      <c r="B2" s="3">
+        <v>7200</v>
       </c>
       <c r="C2" s="2">
         <v>6</v>
@@ -1456,7 +1516,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>107800</v>
+        <v>14500</v>
       </c>
       <c r="C3" s="2">
         <v>7</v>
@@ -1470,7 +1530,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>215700</v>
+        <v>29100</v>
       </c>
       <c r="C4" s="2">
         <v>8</v>
@@ -1484,7 +1544,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>431500</v>
+        <v>58300</v>
       </c>
       <c r="C5" s="2">
         <v>9</v>
@@ -1498,7 +1558,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>863100</v>
+        <v>222600</v>
       </c>
       <c r="C6" s="2">
         <v>10</v>
@@ -1512,7 +1572,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>1726300</v>
+        <v>781300</v>
       </c>
       <c r="C7" s="2">
         <v>11</v>
@@ -1526,7 +1586,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>3452700</v>
+        <v>2363300</v>
       </c>
       <c r="C8" s="2">
         <v>12</v>
@@ -1540,7 +1600,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>7983600</v>
+        <v>4790100</v>
       </c>
       <c r="C9" s="2">
         <v>13</v>
@@ -1553,8 +1613,8 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <v>15025800</v>
+      <c r="B10" s="2">
+        <v>9015500</v>
       </c>
       <c r="C10" s="2">
         <v>14</v>
@@ -1568,7 +1628,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>29735600</v>
+        <v>17841400</v>
       </c>
       <c r="C11" s="2">
         <v>15</v>
@@ -1605,8 +1665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1633,10 +1693,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>38800</v>
+        <v>5200</v>
       </c>
       <c r="C2" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2">
         <v>775</v>
@@ -1646,11 +1706,11 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <v>77600</v>
+      <c r="B3" s="2">
+        <v>10500</v>
       </c>
       <c r="C3" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2">
         <v>1550</v>
@@ -1660,11 +1720,11 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
-        <v>155300</v>
+      <c r="B4" s="2">
+        <v>21000</v>
       </c>
       <c r="C4" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2">
         <v>3105</v>
@@ -1674,11 +1734,11 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
-        <v>310700</v>
+      <c r="B5" s="2">
+        <v>42000</v>
       </c>
       <c r="C5" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2">
         <v>6210</v>
@@ -1688,11 +1748,11 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
-        <v>621400</v>
+      <c r="B6" s="2">
+        <v>160300</v>
       </c>
       <c r="C6" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2">
         <v>12425</v>
@@ -1702,11 +1762,11 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
-        <v>1242900</v>
+      <c r="B7" s="2">
+        <v>562500</v>
       </c>
       <c r="C7" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2">
         <v>24855</v>
@@ -1716,11 +1776,11 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
-        <v>2485900</v>
+      <c r="B8" s="2">
+        <v>1701600</v>
       </c>
       <c r="C8" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2">
         <v>57480</v>
@@ -1730,11 +1790,11 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
-        <v>5748100</v>
+      <c r="B9" s="2">
+        <v>3448900</v>
       </c>
       <c r="C9" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2">
         <v>108185</v>
@@ -1745,10 +1805,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>10818600</v>
+        <v>6491100</v>
       </c>
       <c r="C10" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2">
         <v>214095</v>
@@ -1759,10 +1819,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>21409600</v>
+        <v>12845800</v>
       </c>
       <c r="C11" s="3">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2">
         <v>395330</v>
@@ -1797,7 +1857,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1826,8 +1886,8 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>34500</v>
+      <c r="B2" s="3">
+        <v>4600</v>
       </c>
       <c r="C2" s="2">
         <v>150</v>
@@ -1844,7 +1904,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>69000</v>
+        <v>9300</v>
       </c>
       <c r="C3" s="2">
         <v>200</v>
@@ -1861,7 +1921,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>138100</v>
+        <v>18600</v>
       </c>
       <c r="C4" s="2">
         <v>250</v>
@@ -1878,7 +1938,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>276200</v>
+        <v>37300</v>
       </c>
       <c r="C5" s="2">
         <v>300</v>
@@ -1895,7 +1955,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>552400</v>
+        <v>142400</v>
       </c>
       <c r="C6" s="2">
         <v>350</v>
@@ -1912,7 +1972,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>1104800</v>
+        <v>500000</v>
       </c>
       <c r="C7" s="2">
         <v>400</v>
@@ -1929,7 +1989,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>2209700</v>
+        <v>1512500</v>
       </c>
       <c r="C8" s="2">
         <v>450</v>
@@ -1946,7 +2006,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>5109500</v>
+        <v>3065700</v>
       </c>
       <c r="C9" s="2">
         <v>500</v>
@@ -1962,8 +2022,8 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <v>9616500</v>
+      <c r="B10" s="2">
+        <v>5769900</v>
       </c>
       <c r="C10" s="2">
         <v>550</v>
@@ -1980,7 +2040,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>19030800</v>
+        <v>11418400</v>
       </c>
       <c r="C11" s="2">
         <v>600</v>

--- a/datas/shared/AllianceBuilding.xlsx
+++ b/datas/shared/AllianceBuilding.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9840" yWindow="0" windowWidth="28420" windowHeight="20120" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1300" yWindow="0" windowWidth="28420" windowHeight="20120" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="palace" sheetId="1" r:id="rId1"/>
@@ -225,8 +225,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="257">
+  <cellStyleXfs count="271">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -502,7 +516,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="257">
+  <cellStyles count="271">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -631,6 +645,13 @@
     <cellStyle name="超链接" xfId="251" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="253" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="269" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -759,6 +780,13 @@
     <cellStyle name="访问过的超链接" xfId="252" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="254" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="270" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1281,7 +1309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
@@ -1665,8 +1693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1696,7 +1724,7 @@
         <v>5200</v>
       </c>
       <c r="C2" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2">
         <v>775</v>
@@ -1710,7 +1738,7 @@
         <v>10500</v>
       </c>
       <c r="C3" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2">
         <v>1550</v>
@@ -1724,7 +1752,7 @@
         <v>21000</v>
       </c>
       <c r="C4" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2">
         <v>3105</v>
@@ -1738,7 +1766,7 @@
         <v>42000</v>
       </c>
       <c r="C5" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2">
         <v>6210</v>
@@ -1752,7 +1780,7 @@
         <v>160300</v>
       </c>
       <c r="C6" s="3">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2">
         <v>12425</v>
@@ -1766,7 +1794,7 @@
         <v>562500</v>
       </c>
       <c r="C7" s="3">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2">
         <v>24855</v>
@@ -1780,7 +1808,7 @@
         <v>1701600</v>
       </c>
       <c r="C8" s="3">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>57480</v>
@@ -1794,7 +1822,7 @@
         <v>3448900</v>
       </c>
       <c r="C9" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2">
         <v>108185</v>
@@ -1808,7 +1836,7 @@
         <v>6491100</v>
       </c>
       <c r="C10" s="3">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2">
         <v>214095</v>
@@ -1822,7 +1850,7 @@
         <v>12845800</v>
       </c>
       <c r="C11" s="3">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D11" s="2">
         <v>395330</v>

--- a/datas/shared/AllianceBuilding.xlsx
+++ b/datas/shared/AllianceBuilding.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="0" windowWidth="28420" windowHeight="20120" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="3040" yWindow="0" windowWidth="28420" windowHeight="20120" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="palace" sheetId="1" r:id="rId1"/>
     <sheet name="shop" sheetId="5" r:id="rId2"/>
-    <sheet name="moonGate" sheetId="2" r:id="rId3"/>
+    <sheet name="watchTower" sheetId="2" r:id="rId3"/>
     <sheet name="orderHall" sheetId="3" r:id="rId4"/>
     <sheet name="shrine" sheetId="4" r:id="rId5"/>
   </sheets>
@@ -1502,8 +1502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1693,7 +1693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>

--- a/datas/shared/AllianceBuilding.xlsx
+++ b/datas/shared/AllianceBuilding.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="0" windowWidth="28420" windowHeight="20120" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="1980" yWindow="180" windowWidth="33760" windowHeight="20120" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="palace" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>INT_level</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -37,10 +37,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>INT_defendingCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_power</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -69,52 +65,76 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,dragonChest_1,movingConstruction,torch,changePlayerName,changeCityName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,dragonChest_1,movingConstruction,torch,changePlayerName,changeCityName,woodClass_6,stoneClass_6,ironClass_6,foodClass_6,coinClass_6,retreatTroop,moveTheCity,vipActive_2,casinoTokenClass_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,dragonChest_1,movingConstruction,torch,changePlayerName,changeCityName,woodClass_6,stoneClass_6,ironClass_6,foodClass_6,coinClass_6,retreatTroop,moveTheCity,vipActive_2,casinoTokenClass_1,dragonChest_2,vipActive_3,casinoTokenClass_2,quarterMaster_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,dragonChest_1,movingConstruction,torch,changePlayerName,changeCityName,woodClass_6,stoneClass_6,ironClass_6,foodClass_6,coinClass_6,retreatTroop,moveTheCity,vipActive_2,casinoTokenClass_1,dragonChest_2,vipActive_3,casinoTokenClass_2,quarterMaster_1,woodBonus_1,stoneBonus_1,ironBonus_1,foodBonus_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,dragonChest_1,movingConstruction,torch,changePlayerName,changeCityName,woodClass_6,stoneClass_6,ironClass_6,foodClass_6,coinClass_6,retreatTroop,moveTheCity,vipActive_2,casinoTokenClass_1,dragonChest_2,vipActive_3,casinoTokenClass_2,quarterMaster_1,woodBonus_1,stoneBonus_1,ironBonus_1,foodBonus_1,dragonHp_2,restoreWall_2,masterOfDefender_1,coinBonus_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,dragonChest_1,movingConstruction,torch,changePlayerName,changeCityName,woodClass_6,stoneClass_6,ironClass_6,foodClass_6,coinClass_6,retreatTroop,moveTheCity,vipActive_2,casinoTokenClass_1,dragonChest_2,vipActive_3,casinoTokenClass_2,quarterMaster_1,woodBonus_1,stoneBonus_1,ironBonus_1,foodBonus_1,dragonHp_2,restoreWall_2,masterOfDefender_1,coinBonus_1,infantryAtkBonus_1,archerAtkBonus_1,cavalryAtkBonus_1,siegeAtkBonus_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,dragonChest_1,movingConstruction,torch,changePlayerName,changeCityName,woodClass_6,stoneClass_6,ironClass_6,foodClass_6,coinClass_6,retreatTroop,moveTheCity,vipActive_2,casinoTokenClass_1,dragonChest_2,vipActive_3,casinoTokenClass_2,quarterMaster_1,woodBonus_1,stoneBonus_1,ironBonus_1,foodBonus_1,dragonHp_2,restoreWall_2,masterOfDefender_1,coinBonus_1,infantryAtkBonus_1,archerAtkBonus_1,cavalryAtkBonus_1,siegeAtkBonus_1,dragonChest_3,unitHpBonus_1,dragonHpBonus_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,dragonChest_1,movingConstruction,torch,changePlayerName,changeCityName,woodClass_6,stoneClass_6,ironClass_6,foodClass_6,coinClass_6,retreatTroop,moveTheCity,vipActive_2,casinoTokenClass_1,dragonChest_2,vipActive_3,casinoTokenClass_2,quarterMaster_1,woodBonus_1,stoneBonus_1,ironBonus_1,foodBonus_1,dragonHp_2,restoreWall_2,masterOfDefender_1,coinBonus_1,infantryAtkBonus_1,archerAtkBonus_1,cavalryAtkBonus_1,siegeAtkBonus_1,dragonChest_3,unitHpBonus_1,dragonHpBonus_1,troopSizeBonus_1,heroBlood_2,dragonExp_2,vipPoint_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,dragonChest_1,movingConstruction,torch,changePlayerName,changeCityName,woodClass_6,stoneClass_6,ironClass_6,foodClass_6,coinClass_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,dragonChest_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_pRecoveryPerHour</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>INT_villageCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woodClass_3,stoneClass_3,ironClass_3,foodClass_3</t>
+  </si>
+  <si>
+    <t>woodClass_3,stoneClass_3,ironClass_3,foodClass_3,coinClass_3,dragonChest_1</t>
+  </si>
+  <si>
+    <t>woodClass_3,stoneClass_3,ironClass_3,foodClass_3,coinClass_3,dragonChest_1,movingConstruction,torch,changePlayerName</t>
+  </si>
+  <si>
+    <t>woodClass_3,stoneClass_3,ironClass_3,foodClass_3,coinClass_3,dragonChest_1,movingConstruction,torch,changePlayerName,retreatTroop,moveTheCity,vipActive_2</t>
+  </si>
+  <si>
+    <t>woodClass_3,stoneClass_3,ironClass_3,foodClass_3,coinClass_3,dragonChest_1,movingConstruction,torch,changePlayerName,retreatTroop,moveTheCity,vipActive_2,woodClass_4,stoneClass_4,ironClass_4,foodClass_4</t>
+  </si>
+  <si>
+    <t>woodClass_3,stoneClass_3,ironClass_3,foodClass_3,coinClass_3,dragonChest_1,movingConstruction,torch,changePlayerName,retreatTroop,moveTheCity,vipActive_2,woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,chest_2,restoreWall_1</t>
+  </si>
+  <si>
+    <t>woodClass_3,stoneClass_3,ironClass_3,foodClass_3,coinClass_3,dragonChest_1,movingConstruction,torch,changePlayerName,retreatTroop,moveTheCity,vipActive_2,woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,chest_2,restoreWall_1,woodBonus_1,stoneBonus_1,ironBonus_1,foodBonus_1</t>
+  </si>
+  <si>
+    <t>woodClass_3,stoneClass_3,ironClass_3,foodClass_3,coinClass_3,dragonChest_1,movingConstruction,torch,changePlayerName,retreatTroop,moveTheCity,vipActive_2,woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,chest_2,restoreWall_1,woodBonus_1,stoneBonus_1,ironBonus_1,foodBonus_1,chest_3,casinoTokenClass_2,stamina_1</t>
+  </si>
+  <si>
+    <t>woodClass_3,stoneClass_3,ironClass_3,foodClass_3,coinClass_3,dragonChest_1,movingConstruction,torch,changePlayerName,retreatTroop,moveTheCity,vipActive_2,woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,chest_2,restoreWall_1,woodBonus_1,stoneBonus_1,ironBonus_1,foodBonus_1,chest_3,casinoTokenClass_2,stamina_1,woodClass_5,stoneClass_5,ironClass_5,foodClass_5</t>
+  </si>
+  <si>
+    <t>woodClass_3,stoneClass_3,ironClass_3,foodClass_3,coinClass_3,dragonChest_1,movingConstruction,torch,changePlayerName,retreatTroop,moveTheCity,vipActive_2,woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,chest_2,restoreWall_1,woodBonus_1,stoneBonus_1,ironBonus_1,foodBonus_1,chest_3,casinoTokenClass_2,stamina_1,woodClass_5,stoneClass_5,ironClass_5,foodClass_5,coinClass_5,quarterMaster_1</t>
+  </si>
+  <si>
+    <t>woodClass_3,stoneClass_3,ironClass_3,foodClass_3,coinClass_3,dragonChest_1,movingConstruction,torch,changePlayerName,retreatTroop,moveTheCity,vipActive_2,woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,chest_2,restoreWall_1,woodBonus_1,stoneBonus_1,ironBonus_1,foodBonus_1,chest_3,casinoTokenClass_2,stamina_1,woodClass_5,stoneClass_5,ironClass_5,foodClass_5,coinClass_5,quarterMaster_1,dragonChest_2,chest_3</t>
+  </si>
+  <si>
+    <t>woodClass_3,stoneClass_3,ironClass_3,foodClass_3,coinClass_3,dragonChest_1,movingConstruction,torch,changePlayerName,retreatTroop,moveTheCity,vipActive_2,woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,chest_2,restoreWall_1,woodBonus_1,stoneBonus_1,ironBonus_1,foodBonus_1,chest_3,casinoTokenClass_2,stamina_1,woodClass_5,stoneClass_5,ironClass_5,foodClass_5,coinClass_5,quarterMaster_1,dragonChest_2,chest_3,unitHpBonus_1,dragonExpBonus_1</t>
+  </si>
+  <si>
+    <t>woodClass_3,stoneClass_3,ironClass_3,foodClass_3,coinClass_3,dragonChest_1,movingConstruction,torch,changePlayerName,retreatTroop,moveTheCity,vipActive_2,woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,chest_2,restoreWall_1,woodBonus_1,stoneBonus_1,ironBonus_1,foodBonus_1,chest_3,casinoTokenClass_2,stamina_1,woodClass_5,stoneClass_5,ironClass_5,foodClass_5,coinClass_5,quarterMaster_1,dragonChest_2,chest_3,unitHpBonus_1,dragonExpBonus_1,woodClass_6,stoneClass_6,ironClass_6,foodClass_6</t>
+  </si>
+  <si>
+    <t>woodClass_3,stoneClass_3,ironClass_3,foodClass_3,coinClass_3,dragonChest_1,movingConstruction,torch,changePlayerName,retreatTroop,moveTheCity,vipActive_2,woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,chest_2,restoreWall_1,woodBonus_1,stoneBonus_1,ironBonus_1,foodBonus_1,chest_3,casinoTokenClass_2,stamina_1,woodClass_5,stoneClass_5,ironClass_5,foodClass_5,coinClass_5,quarterMaster_1,dragonChest_2,chest_3,unitHpBonus_1,dragonExpBonus_1,woodClass_6,stoneClass_6,ironClass_6,foodClass_6,coinClass_6,casinoTokenClass_3</t>
+  </si>
+  <si>
+    <t>woodClass_3,stoneClass_3,ironClass_3,foodClass_3,coinClass_3,dragonChest_1,movingConstruction,torch,changePlayerName,retreatTroop,moveTheCity,vipActive_2,woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,chest_2,restoreWall_1,woodBonus_1,stoneBonus_1,ironBonus_1,foodBonus_1,chest_3,casinoTokenClass_2,stamina_1,woodClass_5,stoneClass_5,ironClass_5,foodClass_5,coinClass_5,quarterMaster_1,dragonChest_2,chest_3,unitHpBonus_1,dragonExpBonus_1,woodClass_6,stoneClass_6,ironClass_6,foodClass_6,coinClass_6,casinoTokenClass_3,infantryAtkBonus_1,archerAtkBonus_1,cavalryAtkBonus_1,siegeAtkBonus_1</t>
+  </si>
+  <si>
+    <t>woodClass_3,stoneClass_3,ironClass_3,foodClass_3,coinClass_3,dragonChest_1,movingConstruction,torch,changePlayerName,retreatTroop,moveTheCity,vipActive_2,woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,chest_2,restoreWall_1,woodBonus_1,stoneBonus_1,ironBonus_1,foodBonus_1,chest_3,casinoTokenClass_2,stamina_1,woodClass_5,stoneClass_5,ironClass_5,foodClass_5,coinClass_5,quarterMaster_1,dragonChest_2,chest_3,unitHpBonus_1,dragonExpBonus_1,woodClass_6,stoneClass_6,ironClass_6,foodClass_6,coinClass_6,casinoTokenClass_3,infantryAtkBonus_1,archerAtkBonus_1,cavalryAtkBonus_1,siegeAtkBonus_1,marchSpeedBonus_1,troopSizeBonus_1</t>
+  </si>
+  <si>
+    <t>woodClass_3,stoneClass_3,ironClass_3,foodClass_3,coinClass_3,dragonChest_1,movingConstruction,torch,changePlayerName,retreatTroop,moveTheCity,vipActive_2,woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,chest_2,restoreWall_1,woodBonus_1,stoneBonus_1,ironBonus_1,foodBonus_1,chest_3,casinoTokenClass_2,stamina_1,woodClass_5,stoneClass_5,ironClass_5,foodClass_5,coinClass_5,quarterMaster_1,dragonChest_2,chest_3,unitHpBonus_1,dragonExpBonus_1,woodClass_6,stoneClass_6,ironClass_6,foodClass_6,coinClass_6,casinoTokenClass_3,infantryAtkBonus_1,archerAtkBonus_1,cavalryAtkBonus_1,siegeAtkBonus_1,marchSpeedBonus_1,troopSizeBonus_1,woodClass_7,stoneClass_7,ironClass_7,foodClass_7</t>
+  </si>
+  <si>
+    <t>woodClass_3,stoneClass_3,ironClass_3,foodClass_3,coinClass_3,dragonChest_1,movingConstruction,torch,changePlayerName,retreatTroop,moveTheCity,vipActive_2,woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,chest_2,restoreWall_1,woodBonus_1,stoneBonus_1,ironBonus_1,foodBonus_1,chest_3,casinoTokenClass_2,stamina_1,woodClass_5,stoneClass_5,ironClass_5,foodClass_5,coinClass_5,quarterMaster_1,dragonChest_2,chest_3,unitHpBonus_1,dragonExpBonus_1,woodClass_6,stoneClass_6,ironClass_6,foodClass_6,coinClass_6,casinoTokenClass_3,infantryAtkBonus_1,archerAtkBonus_1,cavalryAtkBonus_1,siegeAtkBonus_1,marchSpeedBonus_1,troopSizeBonus_1,woodClass_7,stoneClass_7,ironClass_7,foodClass_7,coinClass_7,sweepScroll</t>
+  </si>
+  <si>
+    <t>woodClass_3,stoneClass_3,ironClass_3,foodClass_3,coinClass_3,dragonChest_1,movingConstruction,torch,changePlayerName,retreatTroop,moveTheCity,vipActive_2,woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,chest_2,restoreWall_1,woodBonus_1,stoneBonus_1,ironBonus_1,foodBonus_1,chest_3,casinoTokenClass_2,stamina_1,woodClass_5,stoneClass_5,ironClass_5,foodClass_5,coinClass_5,quarterMaster_1,dragonChest_2,chest_3,unitHpBonus_1,dragonExpBonus_1,woodClass_6,stoneClass_6,ironClass_6,foodClass_6,coinClass_6,casinoTokenClass_3,infantryAtkBonus_1,archerAtkBonus_1,cavalryAtkBonus_1,siegeAtkBonus_1,marchSpeedBonus_1,troopSizeBonus_1,woodClass_7,stoneClass_7,ironClass_7,foodClass_7,coinClass_7,sweepScroll,dragonChest_3,chest_4</t>
+  </si>
+  <si>
+    <t>woodClass_3,stoneClass_3,ironClass_3,foodClass_3,coinClass_3,dragonChest_1,movingConstruction,torch,changePlayerName,retreatTroop,moveTheCity,vipActive_2,woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,chest_2,restoreWall_1,woodBonus_1,stoneBonus_1,ironBonus_1,foodBonus_1,chest_3,casinoTokenClass_2,stamina_1,woodClass_5,stoneClass_5,ironClass_5,foodClass_5,coinClass_5,quarterMaster_1,dragonChest_2,chest_3,unitHpBonus_1,dragonExpBonus_1,woodClass_6,stoneClass_6,ironClass_6,foodClass_6,coinClass_6,casinoTokenClass_3,infantryAtkBonus_1,archerAtkBonus_1,cavalryAtkBonus_1,siegeAtkBonus_1,marchSpeedBonus_1,troopSizeBonus_1,woodClass_7,stoneClass_7,ironClass_7,foodClass_7,coinClass_7,sweepScroll,dragonChest_3,chest_4,masterOfDefender_1,warSpeedupClass_1,warSpeedupClass_2</t>
   </si>
   <si>
     <t>INT_power</t>
@@ -225,8 +245,92 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="271">
+  <cellStyleXfs count="355">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -516,7 +620,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="271">
+  <cellStyles count="355">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -652,6 +756,48 @@
     <cellStyle name="超链接" xfId="265" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="267" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="353" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -787,6 +933,48 @@
     <cellStyle name="访问过的超链接" xfId="266" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="268" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="354" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1119,7 +1307,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1135,10 +1323,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -1146,13 +1334,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>5800</v>
+        <v>2040</v>
       </c>
       <c r="C2" s="2">
         <v>11</v>
       </c>
       <c r="D2" s="2">
-        <v>860</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
@@ -1160,13 +1348,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>11600</v>
+        <v>5508</v>
       </c>
       <c r="C3" s="2">
         <v>12</v>
       </c>
       <c r="D3" s="2">
-        <v>1725</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
@@ -1174,13 +1362,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>23300</v>
+        <v>12240</v>
       </c>
       <c r="C4" s="2">
         <v>13</v>
       </c>
       <c r="D4" s="2">
-        <v>3450</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
@@ -1188,13 +1376,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>46700</v>
+        <v>18360</v>
       </c>
       <c r="C5" s="2">
         <v>14</v>
       </c>
       <c r="D5" s="2">
-        <v>6905</v>
+        <v>612</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
@@ -1202,13 +1390,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>178100</v>
+        <v>26928</v>
       </c>
       <c r="C6" s="2">
         <v>15</v>
       </c>
       <c r="D6" s="2">
-        <v>13810</v>
+        <v>897</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
@@ -1216,13 +1404,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>625100</v>
+        <v>45696</v>
       </c>
       <c r="C7" s="2">
         <v>16</v>
       </c>
       <c r="D7" s="2">
-        <v>27620</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15">
@@ -1230,13 +1418,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>1890700</v>
+        <v>75480</v>
       </c>
       <c r="C8" s="2">
         <v>17</v>
       </c>
       <c r="D8" s="2">
-        <v>63865</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
@@ -1244,13 +1432,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>3832100</v>
+        <v>124848</v>
       </c>
       <c r="C9" s="2">
         <v>18</v>
       </c>
       <c r="D9" s="2">
-        <v>120205</v>
+        <v>4161</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15">
@@ -1258,13 +1446,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>7212400</v>
+        <v>192780</v>
       </c>
       <c r="C10" s="2">
         <v>19</v>
       </c>
       <c r="D10" s="2">
-        <v>237885</v>
+        <v>6426</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
@@ -1272,27 +1460,157 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>14273100</v>
+        <v>293760</v>
       </c>
       <c r="C11" s="2">
         <v>20</v>
       </c>
       <c r="D11" s="2">
-        <v>439260</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15"/>
-    <row r="13" spans="1:4" ht="15"/>
-    <row r="14" spans="1:4" ht="15"/>
-    <row r="15" spans="1:4" ht="15"/>
-    <row r="16" spans="1:4" ht="15"/>
-    <row r="17" ht="15"/>
-    <row r="18" ht="15"/>
-    <row r="19" ht="15"/>
-    <row r="20" ht="15"/>
-    <row r="21" ht="15"/>
-    <row r="22" ht="15"/>
-    <row r="23" ht="15"/>
+        <v>9792</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>427788</v>
+      </c>
+      <c r="C12" s="2">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2">
+        <v>14259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>642600</v>
+      </c>
+      <c r="C13" s="2">
+        <v>24</v>
+      </c>
+      <c r="D13" s="2">
+        <v>21420</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>924528</v>
+      </c>
+      <c r="C14" s="2">
+        <v>26</v>
+      </c>
+      <c r="D14" s="2">
+        <v>30817</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1351296</v>
+      </c>
+      <c r="C15" s="2">
+        <v>28</v>
+      </c>
+      <c r="D15" s="2">
+        <v>45043</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1909440</v>
+      </c>
+      <c r="C16" s="2">
+        <v>30</v>
+      </c>
+      <c r="D16" s="2">
+        <v>63648</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2741760</v>
+      </c>
+      <c r="C17" s="2">
+        <v>32</v>
+      </c>
+      <c r="D17" s="2">
+        <v>91392</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>3815820</v>
+      </c>
+      <c r="C18" s="2">
+        <v>34</v>
+      </c>
+      <c r="D18" s="2">
+        <v>127194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4830720</v>
+      </c>
+      <c r="C19" s="2">
+        <v>36</v>
+      </c>
+      <c r="D19" s="2">
+        <v>161024</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>5548800</v>
+      </c>
+      <c r="C20" s="2">
+        <v>38</v>
+      </c>
+      <c r="D20" s="2">
+        <v>184960</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>7344000</v>
+      </c>
+      <c r="C21" s="2">
+        <v>40</v>
+      </c>
+      <c r="D21" s="2">
+        <v>244800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15"/>
+    <row r="23" spans="1:4" ht="15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1310,7 +1628,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1328,10 +1646,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -1339,153 +1657,283 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>4000</v>
+        <v>2210</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>8100</v>
+        <v>5967</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="45">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>16300</v>
+        <v>13260</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2">
-        <v>2415</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="45">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>32600</v>
+        <v>19890</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2">
-        <v>4830</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="60">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>124600</v>
+        <v>29172</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2">
-        <v>9665</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="75">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>437500</v>
+        <v>49504</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2">
-        <v>19335</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="75">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="60">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
-        <v>1323500</v>
+      <c r="B8" s="2">
+        <v>81770</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2">
-        <v>44705</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="90">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="60">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>2682400</v>
+        <v>135252</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2">
-        <v>84140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="90">
+        <v>4508</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="75">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>5048600</v>
+        <v>208845</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2">
-        <v>166515</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="105">
+        <v>6961</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="75">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>9991100</v>
+        <v>318240</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2">
+        <v>10608</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="75">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>463437</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2">
+        <v>15447</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="90">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>696150</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="2">
+        <v>23205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="90">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1001572</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2">
+        <v>33385</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="90">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1463904</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="2">
+        <v>48796</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="105">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2068560</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="2">
+        <v>68952</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="120">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2970240</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="2">
+        <v>99008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="120">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4133805</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="2">
+        <v>137793</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="120">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="D11" s="2">
-        <v>307480</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15"/>
-    <row r="13" spans="1:4" ht="15"/>
-    <row r="14" spans="1:4" ht="15"/>
-    <row r="15" spans="1:4" ht="15"/>
-    <row r="16" spans="1:4" ht="15"/>
-    <row r="17" ht="15"/>
-    <row r="18" ht="15"/>
-    <row r="19" ht="15"/>
-    <row r="20" ht="15"/>
-    <row r="21" ht="15"/>
-    <row r="22" ht="15"/>
-    <row r="23" ht="15"/>
+      <c r="B19" s="2">
+        <v>5233280</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="2">
+        <v>174442</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="135">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>6011200</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="2">
+        <v>200373</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="135">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>7956000</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="2">
+        <v>265200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15"/>
+    <row r="23" spans="1:4" ht="15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1500,10 +1948,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1511,7 +1959,7 @@
     <col min="1" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1519,164 +1967,231 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>7200</v>
+        <v>2380</v>
       </c>
       <c r="C2" s="2">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>14500</v>
+        <v>6426</v>
       </c>
       <c r="C3" s="2">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>29100</v>
+        <v>14280</v>
       </c>
       <c r="C4" s="2">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2">
-        <v>4315</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>58300</v>
+        <v>21420</v>
       </c>
       <c r="C5" s="2">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2">
-        <v>8630</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>222600</v>
+        <v>31416</v>
       </c>
       <c r="C6" s="2">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2">
-        <v>17260</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>781300</v>
+        <v>53312</v>
       </c>
       <c r="C7" s="2">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2">
-        <v>34525</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>2363300</v>
+        <v>88060</v>
       </c>
       <c r="C8" s="2">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2">
-        <v>79835</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
-        <v>4790100</v>
+      <c r="B9" s="2">
+        <v>145656</v>
       </c>
       <c r="C9" s="2">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2">
-        <v>150255</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15">
+        <v>4855</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>9015500</v>
+        <v>224910</v>
       </c>
       <c r="C10" s="2">
-        <v>14</v>
-      </c>
-      <c r="D10" s="2">
-        <v>297355</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15">
+        <v>7497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>17841400</v>
+        <v>342720</v>
       </c>
       <c r="C11" s="2">
+        <v>11424</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>499086</v>
+      </c>
+      <c r="C12" s="2">
+        <v>16636</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>749700</v>
+      </c>
+      <c r="C13" s="2">
+        <v>24990</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1078616</v>
+      </c>
+      <c r="C14" s="2">
+        <v>35953</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1576512</v>
+      </c>
+      <c r="C15" s="2">
+        <v>52550</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="D11" s="2">
-        <v>549075</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15"/>
-    <row r="13" spans="1:4" ht="15"/>
-    <row r="14" spans="1:4" ht="15"/>
-    <row r="15" spans="1:4" ht="15"/>
-    <row r="16" spans="1:4" ht="15"/>
-    <row r="17" ht="15"/>
-    <row r="18" ht="15"/>
-    <row r="19" ht="15"/>
-    <row r="20" ht="15"/>
-    <row r="21" ht="15"/>
-    <row r="22" ht="15"/>
-    <row r="23" ht="15"/>
+      <c r="B16" s="2">
+        <v>2227680</v>
+      </c>
+      <c r="C16" s="2">
+        <v>74256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3198720</v>
+      </c>
+      <c r="C17" s="2">
+        <v>106624</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4451790</v>
+      </c>
+      <c r="C18" s="2">
+        <v>148393</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>5635840</v>
+      </c>
+      <c r="C19" s="2">
+        <v>187861</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>6473600</v>
+      </c>
+      <c r="C20" s="2">
+        <v>215786</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>8568000</v>
+      </c>
+      <c r="C21" s="2">
+        <v>285600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15"/>
+    <row r="23" spans="1:3" ht="15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1694,7 +2209,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1704,13 +2219,13 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="15">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1721,13 +2236,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>5200</v>
+        <v>2550</v>
       </c>
       <c r="C2" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2">
-        <v>775</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
@@ -1735,13 +2250,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>10500</v>
+        <v>6885</v>
       </c>
       <c r="C3" s="3">
         <v>12</v>
       </c>
       <c r="D3" s="2">
-        <v>1550</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
@@ -1749,13 +2264,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>21000</v>
+        <v>15300</v>
       </c>
       <c r="C4" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2">
-        <v>3105</v>
+        <v>510</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
@@ -1763,13 +2278,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>42000</v>
+        <v>22950</v>
       </c>
       <c r="C5" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2">
-        <v>6210</v>
+        <v>765</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
@@ -1777,13 +2292,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>160300</v>
+        <v>33660</v>
       </c>
       <c r="C6" s="3">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2">
-        <v>12425</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
@@ -1791,13 +2306,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>562500</v>
+        <v>57120</v>
       </c>
       <c r="C7" s="3">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2">
-        <v>24855</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15">
@@ -1805,13 +2320,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>1701600</v>
+        <v>94350</v>
       </c>
       <c r="C8" s="3">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2">
-        <v>57480</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
@@ -1819,13 +2334,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>3448900</v>
+        <v>156060</v>
       </c>
       <c r="C9" s="3">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D9" s="2">
-        <v>108185</v>
+        <v>5202</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15">
@@ -1833,13 +2348,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>6491100</v>
+        <v>240975</v>
       </c>
       <c r="C10" s="3">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D10" s="2">
-        <v>214095</v>
+        <v>8032</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
@@ -1847,27 +2362,157 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>12845800</v>
+        <v>367200</v>
       </c>
       <c r="C11" s="3">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2">
-        <v>395330</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15"/>
-    <row r="13" spans="1:4" ht="15"/>
-    <row r="14" spans="1:4" ht="15"/>
-    <row r="15" spans="1:4" ht="15"/>
-    <row r="16" spans="1:4" ht="15"/>
-    <row r="17" ht="15"/>
-    <row r="18" ht="15"/>
-    <row r="19" ht="15"/>
-    <row r="20" ht="15"/>
-    <row r="21" ht="15"/>
-    <row r="22" ht="15"/>
-    <row r="23" ht="15"/>
+        <v>12240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>534735</v>
+      </c>
+      <c r="C12" s="3">
+        <v>48</v>
+      </c>
+      <c r="D12" s="2">
+        <v>17824</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>803250</v>
+      </c>
+      <c r="C13" s="3">
+        <v>52</v>
+      </c>
+      <c r="D13" s="2">
+        <v>26775</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1155660</v>
+      </c>
+      <c r="C14" s="3">
+        <v>56</v>
+      </c>
+      <c r="D14" s="2">
+        <v>38522</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1689120</v>
+      </c>
+      <c r="C15" s="3">
+        <v>60</v>
+      </c>
+      <c r="D15" s="2">
+        <v>56304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2386800</v>
+      </c>
+      <c r="C16" s="3">
+        <v>64</v>
+      </c>
+      <c r="D16" s="2">
+        <v>79560</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3427200</v>
+      </c>
+      <c r="C17" s="3">
+        <v>68</v>
+      </c>
+      <c r="D17" s="2">
+        <v>114240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4769775</v>
+      </c>
+      <c r="C18" s="3">
+        <v>72</v>
+      </c>
+      <c r="D18" s="2">
+        <v>158992</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>6038400</v>
+      </c>
+      <c r="C19" s="3">
+        <v>76</v>
+      </c>
+      <c r="D19" s="2">
+        <v>201280</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>6936000</v>
+      </c>
+      <c r="C20" s="3">
+        <v>80</v>
+      </c>
+      <c r="D20" s="2">
+        <v>231200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>9180000</v>
+      </c>
+      <c r="C21" s="3">
+        <v>84</v>
+      </c>
+      <c r="D21" s="2">
+        <v>306000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15"/>
+    <row r="23" spans="1:4" ht="15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1885,7 +2530,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1901,13 +2546,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15">
@@ -1915,16 +2560,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>4600</v>
+        <v>3060</v>
       </c>
       <c r="C2" s="2">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="D2" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2">
-        <v>690</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15">
@@ -1932,16 +2577,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>9300</v>
+        <v>8262</v>
       </c>
       <c r="C3" s="2">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D3" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="2">
-        <v>1380</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15">
@@ -1949,16 +2594,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>18600</v>
+        <v>18360</v>
       </c>
       <c r="C4" s="2">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="D4" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2">
-        <v>2760</v>
+        <v>612</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15">
@@ -1966,16 +2611,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>37300</v>
+        <v>27540</v>
       </c>
       <c r="C5" s="2">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="D5" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2">
-        <v>5520</v>
+        <v>918</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15">
@@ -1983,16 +2628,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>142400</v>
+        <v>40392</v>
       </c>
       <c r="C6" s="2">
-        <v>350</v>
+        <v>225</v>
       </c>
       <c r="D6" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2">
-        <v>11045</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15">
@@ -2000,16 +2645,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>500000</v>
+        <v>68544</v>
       </c>
       <c r="C7" s="2">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="D7" s="2">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E7" s="2">
-        <v>22095</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15">
@@ -2017,33 +2662,33 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>1512500</v>
+        <v>113220</v>
       </c>
       <c r="C8" s="2">
-        <v>450</v>
+        <v>275</v>
       </c>
       <c r="D8" s="2">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E8" s="2">
-        <v>51095</v>
+        <v>3774</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
-        <v>3065700</v>
+      <c r="B9" s="2">
+        <v>187272</v>
       </c>
       <c r="C9" s="2">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D9" s="2">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E9" s="2">
-        <v>96165</v>
+        <v>6242</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15">
@@ -2051,16 +2696,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>5769900</v>
+        <v>289170</v>
       </c>
       <c r="C10" s="2">
-        <v>550</v>
+        <v>325</v>
       </c>
       <c r="D10" s="2">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E10" s="2">
-        <v>190305</v>
+        <v>9639</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15">
@@ -2068,30 +2713,190 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>11418400</v>
+        <v>440640</v>
       </c>
       <c r="C11" s="2">
+        <v>350</v>
+      </c>
+      <c r="D11" s="2">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2">
+        <v>14688</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>641682</v>
+      </c>
+      <c r="C12" s="2">
+        <v>375</v>
+      </c>
+      <c r="D12" s="2">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2">
+        <v>21389</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>963900</v>
+      </c>
+      <c r="C13" s="2">
+        <v>400</v>
+      </c>
+      <c r="D13" s="2">
+        <v>17</v>
+      </c>
+      <c r="E13" s="2">
+        <v>32130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1386792</v>
+      </c>
+      <c r="C14" s="2">
+        <v>425</v>
+      </c>
+      <c r="D14" s="2">
+        <v>18</v>
+      </c>
+      <c r="E14" s="2">
+        <v>46226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2026944</v>
+      </c>
+      <c r="C15" s="2">
+        <v>450</v>
+      </c>
+      <c r="D15" s="2">
+        <v>19</v>
+      </c>
+      <c r="E15" s="2">
+        <v>67564</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2864160</v>
+      </c>
+      <c r="C16" s="2">
+        <v>475</v>
+      </c>
+      <c r="D16" s="2">
+        <v>20</v>
+      </c>
+      <c r="E16" s="2">
+        <v>95472</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4112640</v>
+      </c>
+      <c r="C17" s="2">
+        <v>500</v>
+      </c>
+      <c r="D17" s="2">
+        <v>21</v>
+      </c>
+      <c r="E17" s="2">
+        <v>137088</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>5723730</v>
+      </c>
+      <c r="C18" s="2">
+        <v>525</v>
+      </c>
+      <c r="D18" s="2">
+        <v>22</v>
+      </c>
+      <c r="E18" s="2">
+        <v>190791</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>7246080</v>
+      </c>
+      <c r="C19" s="2">
+        <v>550</v>
+      </c>
+      <c r="D19" s="2">
+        <v>23</v>
+      </c>
+      <c r="E19" s="2">
+        <v>241536</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>8323200</v>
+      </c>
+      <c r="C20" s="2">
+        <v>575</v>
+      </c>
+      <c r="D20" s="2">
+        <v>24</v>
+      </c>
+      <c r="E20" s="2">
+        <v>277440</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>11016000</v>
+      </c>
+      <c r="C21" s="2">
         <v>600</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D21" s="2">
         <v>25</v>
       </c>
-      <c r="E11" s="2">
-        <v>351405</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15"/>
-    <row r="13" spans="1:5" ht="15"/>
-    <row r="14" spans="1:5" ht="15"/>
-    <row r="15" spans="1:5" ht="15"/>
-    <row r="16" spans="1:5" ht="15"/>
-    <row r="17" ht="15"/>
-    <row r="18" ht="15"/>
-    <row r="19" ht="15"/>
-    <row r="20" ht="15"/>
-    <row r="21" ht="15"/>
-    <row r="22" ht="15"/>
-    <row r="23" ht="15"/>
+      <c r="E21" s="2">
+        <v>367200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15"/>
+    <row r="23" spans="1:5" ht="15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datas/shared/AllianceBuilding.xlsx
+++ b/datas/shared/AllianceBuilding.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="180" windowWidth="33760" windowHeight="20120" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="560" yWindow="380" windowWidth="33760" windowHeight="20120" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="palace" sheetId="1" r:id="rId1"/>
@@ -245,8 +245,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="355">
+  <cellStyleXfs count="369">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -620,7 +634,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="355">
+  <cellStyles count="369">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -798,6 +812,13 @@
     <cellStyle name="超链接" xfId="349" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="351" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="367" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -975,6 +996,13 @@
     <cellStyle name="访问过的超链接" xfId="350" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="352" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="368" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1950,7 +1978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -2208,8 +2236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2239,7 +2267,7 @@
         <v>2550</v>
       </c>
       <c r="C2" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2">
         <v>85</v>
@@ -2253,7 +2281,7 @@
         <v>6885</v>
       </c>
       <c r="C3" s="3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2">
         <v>229</v>
@@ -2267,7 +2295,7 @@
         <v>15300</v>
       </c>
       <c r="C4" s="3">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2">
         <v>510</v>
@@ -2281,7 +2309,7 @@
         <v>22950</v>
       </c>
       <c r="C5" s="3">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2">
         <v>765</v>
@@ -2295,7 +2323,7 @@
         <v>33660</v>
       </c>
       <c r="C6" s="3">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2">
         <v>1122</v>
@@ -2309,7 +2337,7 @@
         <v>57120</v>
       </c>
       <c r="C7" s="3">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2">
         <v>1904</v>
@@ -2323,7 +2351,7 @@
         <v>94350</v>
       </c>
       <c r="C8" s="3">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2">
         <v>3145</v>
@@ -2337,7 +2365,7 @@
         <v>156060</v>
       </c>
       <c r="C9" s="3">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2">
         <v>5202</v>
@@ -2351,7 +2379,7 @@
         <v>240975</v>
       </c>
       <c r="C10" s="3">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2">
         <v>8032</v>
@@ -2365,7 +2393,7 @@
         <v>367200</v>
       </c>
       <c r="C11" s="3">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="D11" s="2">
         <v>12240</v>
@@ -2379,7 +2407,7 @@
         <v>534735</v>
       </c>
       <c r="C12" s="3">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2">
         <v>17824</v>
@@ -2393,7 +2421,7 @@
         <v>803250</v>
       </c>
       <c r="C13" s="3">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="D13" s="2">
         <v>26775</v>
@@ -2407,7 +2435,7 @@
         <v>1155660</v>
       </c>
       <c r="C14" s="3">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="D14" s="2">
         <v>38522</v>
@@ -2421,7 +2449,7 @@
         <v>1689120</v>
       </c>
       <c r="C15" s="3">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="D15" s="2">
         <v>56304</v>
@@ -2435,7 +2463,7 @@
         <v>2386800</v>
       </c>
       <c r="C16" s="3">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="D16" s="2">
         <v>79560</v>
@@ -2449,7 +2477,7 @@
         <v>3427200</v>
       </c>
       <c r="C17" s="3">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2">
         <v>114240</v>
@@ -2463,7 +2491,7 @@
         <v>4769775</v>
       </c>
       <c r="C18" s="3">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="D18" s="2">
         <v>158992</v>
@@ -2477,7 +2505,7 @@
         <v>6038400</v>
       </c>
       <c r="C19" s="3">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="D19" s="2">
         <v>201280</v>
@@ -2491,7 +2519,7 @@
         <v>6936000</v>
       </c>
       <c r="C20" s="3">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="D20" s="2">
         <v>231200</v>
@@ -2505,7 +2533,7 @@
         <v>9180000</v>
       </c>
       <c r="C21" s="3">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="D21" s="2">
         <v>306000</v>

--- a/datas/shared/AllianceBuilding.xlsx
+++ b/datas/shared/AllianceBuilding.xlsx
@@ -245,8 +245,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="369">
+  <cellStyleXfs count="373">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -634,7 +638,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="369">
+  <cellStyles count="373">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -819,6 +823,8 @@
     <cellStyle name="超链接" xfId="363" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="365" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="371" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1003,6 +1009,8 @@
     <cellStyle name="访问过的超链接" xfId="364" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="366" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="372" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2237,7 +2245,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:C21"/>
+      <selection activeCell="E2" sqref="E2:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2267,7 +2275,7 @@
         <v>2550</v>
       </c>
       <c r="C2" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2">
         <v>85</v>
@@ -2281,7 +2289,7 @@
         <v>6885</v>
       </c>
       <c r="C3" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2">
         <v>229</v>
@@ -2295,7 +2303,7 @@
         <v>15300</v>
       </c>
       <c r="C4" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2">
         <v>510</v>
@@ -2309,7 +2317,7 @@
         <v>22950</v>
       </c>
       <c r="C5" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2">
         <v>765</v>
@@ -2323,7 +2331,7 @@
         <v>33660</v>
       </c>
       <c r="C6" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2">
         <v>1122</v>
@@ -2337,7 +2345,7 @@
         <v>57120</v>
       </c>
       <c r="C7" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2">
         <v>1904</v>
@@ -2351,7 +2359,7 @@
         <v>94350</v>
       </c>
       <c r="C8" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2">
         <v>3145</v>
@@ -2365,7 +2373,7 @@
         <v>156060</v>
       </c>
       <c r="C9" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2">
         <v>5202</v>
@@ -2379,7 +2387,7 @@
         <v>240975</v>
       </c>
       <c r="C10" s="3">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2">
         <v>8032</v>
@@ -2393,7 +2401,7 @@
         <v>367200</v>
       </c>
       <c r="C11" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2">
         <v>12240</v>
@@ -2407,7 +2415,7 @@
         <v>534735</v>
       </c>
       <c r="C12" s="3">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2">
         <v>17824</v>
@@ -2421,7 +2429,7 @@
         <v>803250</v>
       </c>
       <c r="C13" s="3">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2">
         <v>26775</v>
@@ -2435,7 +2443,7 @@
         <v>1155660</v>
       </c>
       <c r="C14" s="3">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2">
         <v>38522</v>
@@ -2449,7 +2457,7 @@
         <v>1689120</v>
       </c>
       <c r="C15" s="3">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2">
         <v>56304</v>
@@ -2463,7 +2471,7 @@
         <v>2386800</v>
       </c>
       <c r="C16" s="3">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2">
         <v>79560</v>
@@ -2477,7 +2485,7 @@
         <v>3427200</v>
       </c>
       <c r="C17" s="3">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D17" s="2">
         <v>114240</v>
@@ -2491,7 +2499,7 @@
         <v>4769775</v>
       </c>
       <c r="C18" s="3">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2">
         <v>158992</v>
@@ -2505,7 +2513,7 @@
         <v>6038400</v>
       </c>
       <c r="C19" s="3">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D19" s="2">
         <v>201280</v>
@@ -2519,7 +2527,7 @@
         <v>6936000</v>
       </c>
       <c r="C20" s="3">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D20" s="2">
         <v>231200</v>
@@ -2533,7 +2541,7 @@
         <v>9180000</v>
       </c>
       <c r="C21" s="3">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D21" s="2">
         <v>306000</v>
